--- a/Odds-Data-Clean/2011-12.xlsx
+++ b/Odds-Data-Clean/2011-12.xlsx
@@ -2771,7 +2771,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2011-12-101</t>
+          <t>2011-12-0101</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2011-12-101</t>
+          <t>2011-12-0101</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2011-12-101</t>
+          <t>2011-12-0101</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2011-12-101</t>
+          <t>2011-12-0101</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2011-12-101</t>
+          <t>2011-12-0101</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2011-12-101</t>
+          <t>2011-12-0101</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2011-12-101</t>
+          <t>2011-12-0101</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2011-12-101</t>
+          <t>2011-12-0101</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2011-12-101</t>
+          <t>2011-12-0101</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2011-12-102</t>
+          <t>2011-12-0102</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2011-12-102</t>
+          <t>2011-12-0102</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2011-12-102</t>
+          <t>2011-12-0102</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2011-12-102</t>
+          <t>2011-12-0102</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2011-12-102</t>
+          <t>2011-12-0102</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2011-12-102</t>
+          <t>2011-12-0102</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2011-12-102</t>
+          <t>2011-12-0102</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2011-12-102</t>
+          <t>2011-12-0102</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2011-12-102</t>
+          <t>2011-12-0102</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2011-12-102</t>
+          <t>2011-12-0102</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2011-12-103</t>
+          <t>2011-12-0103</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2011-12-103</t>
+          <t>2011-12-0103</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2011-12-103</t>
+          <t>2011-12-0103</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2011-12-103</t>
+          <t>2011-12-0103</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2011-12-103</t>
+          <t>2011-12-0103</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2011-12-103</t>
+          <t>2011-12-0103</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2011-12-104</t>
+          <t>2011-12-0104</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2011-12-104</t>
+          <t>2011-12-0104</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2011-12-104</t>
+          <t>2011-12-0104</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2011-12-104</t>
+          <t>2011-12-0104</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2011-12-104</t>
+          <t>2011-12-0104</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2011-12-104</t>
+          <t>2011-12-0104</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2011-12-104</t>
+          <t>2011-12-0104</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2011-12-104</t>
+          <t>2011-12-0104</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4157,7 +4157,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2011-12-104</t>
+          <t>2011-12-0104</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2011-12-104</t>
+          <t>2011-12-0104</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2011-12-104</t>
+          <t>2011-12-0104</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2011-12-104</t>
+          <t>2011-12-0104</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2011-12-105</t>
+          <t>2011-12-0105</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2011-12-105</t>
+          <t>2011-12-0105</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2011-12-105</t>
+          <t>2011-12-0105</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2011-12-105</t>
+          <t>2011-12-0105</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2011-12-106</t>
+          <t>2011-12-0106</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4535,7 +4535,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2011-12-106</t>
+          <t>2011-12-0106</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4577,7 +4577,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2011-12-106</t>
+          <t>2011-12-0106</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2011-12-106</t>
+          <t>2011-12-0106</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2011-12-106</t>
+          <t>2011-12-0106</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2011-12-106</t>
+          <t>2011-12-0106</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2011-12-106</t>
+          <t>2011-12-0106</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4787,7 +4787,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2011-12-106</t>
+          <t>2011-12-0106</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4829,7 +4829,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2011-12-106</t>
+          <t>2011-12-0106</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2011-12-106</t>
+          <t>2011-12-0106</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2011-12-106</t>
+          <t>2011-12-0106</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2011-12-106</t>
+          <t>2011-12-0106</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2011-12-107</t>
+          <t>2011-12-0107</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2011-12-107</t>
+          <t>2011-12-0107</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2011-12-107</t>
+          <t>2011-12-0107</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2011-12-107</t>
+          <t>2011-12-0107</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2011-12-107</t>
+          <t>2011-12-0107</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2011-12-107</t>
+          <t>2011-12-0107</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2011-12-107</t>
+          <t>2011-12-0107</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2011-12-107</t>
+          <t>2011-12-0107</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2011-12-107</t>
+          <t>2011-12-0107</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2011-12-107</t>
+          <t>2011-12-0107</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5417,7 +5417,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2011-12-108</t>
+          <t>2011-12-0108</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2011-12-108</t>
+          <t>2011-12-0108</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2011-12-108</t>
+          <t>2011-12-0108</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2011-12-108</t>
+          <t>2011-12-0108</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2011-12-108</t>
+          <t>2011-12-0108</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5627,7 +5627,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2011-12-108</t>
+          <t>2011-12-0108</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2011-12-109</t>
+          <t>2011-12-0109</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2011-12-109</t>
+          <t>2011-12-0109</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2011-12-109</t>
+          <t>2011-12-0109</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5795,7 +5795,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2011-12-109</t>
+          <t>2011-12-0109</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5837,7 +5837,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2011-12-109</t>
+          <t>2011-12-0109</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2011-12-109</t>
+          <t>2011-12-0109</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2011-12-110</t>
+          <t>2011-12-0110</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2011-12-110</t>
+          <t>2011-12-0110</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2011-12-110</t>
+          <t>2011-12-0110</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6047,7 +6047,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2011-12-110</t>
+          <t>2011-12-0110</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2011-12-110</t>
+          <t>2011-12-0110</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6131,7 +6131,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2011-12-110</t>
+          <t>2011-12-0110</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6173,7 +6173,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2011-12-110</t>
+          <t>2011-12-0110</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6215,7 +6215,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2011-12-110</t>
+          <t>2011-12-0110</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2011-12-110</t>
+          <t>2011-12-0110</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6299,7 +6299,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2011-12-110</t>
+          <t>2011-12-0110</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6341,7 +6341,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2011-12-110</t>
+          <t>2011-12-0110</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2011-12-111</t>
+          <t>2011-12-0111</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2011-12-111</t>
+          <t>2011-12-0111</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6467,7 +6467,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2011-12-111</t>
+          <t>2011-12-0111</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2011-12-111</t>
+          <t>2011-12-0111</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2011-12-111</t>
+          <t>2011-12-0111</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2011-12-111</t>
+          <t>2011-12-0111</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6635,7 +6635,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2011-12-111</t>
+          <t>2011-12-0111</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6677,7 +6677,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2011-12-111</t>
+          <t>2011-12-0111</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6719,7 +6719,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2011-12-111</t>
+          <t>2011-12-0111</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6761,7 +6761,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2011-12-111</t>
+          <t>2011-12-0111</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6803,7 +6803,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2011-12-111</t>
+          <t>2011-12-0111</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6845,7 +6845,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2011-12-112</t>
+          <t>2011-12-0112</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6887,7 +6887,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2011-12-112</t>
+          <t>2011-12-0112</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2011-12-112</t>
+          <t>2011-12-0112</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -6971,7 +6971,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2011-12-112</t>
+          <t>2011-12-0112</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7013,7 +7013,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2011-12-112</t>
+          <t>2011-12-0112</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2011-12-113</t>
+          <t>2011-12-0113</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7097,7 +7097,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2011-12-113</t>
+          <t>2011-12-0113</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7139,7 +7139,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2011-12-113</t>
+          <t>2011-12-0113</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7181,7 +7181,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2011-12-113</t>
+          <t>2011-12-0113</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7223,7 +7223,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2011-12-113</t>
+          <t>2011-12-0113</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2011-12-113</t>
+          <t>2011-12-0113</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7307,7 +7307,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2011-12-113</t>
+          <t>2011-12-0113</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7349,7 +7349,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2011-12-113</t>
+          <t>2011-12-0113</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7391,7 +7391,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2011-12-113</t>
+          <t>2011-12-0113</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2011-12-113</t>
+          <t>2011-12-0113</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -7475,7 +7475,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2011-12-113</t>
+          <t>2011-12-0113</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2011-12-114</t>
+          <t>2011-12-0114</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -7559,7 +7559,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2011-12-114</t>
+          <t>2011-12-0114</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2011-12-114</t>
+          <t>2011-12-0114</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2011-12-114</t>
+          <t>2011-12-0114</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -7685,7 +7685,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2011-12-114</t>
+          <t>2011-12-0114</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -7727,7 +7727,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2011-12-114</t>
+          <t>2011-12-0114</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -7769,7 +7769,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2011-12-114</t>
+          <t>2011-12-0114</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -7811,7 +7811,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2011-12-114</t>
+          <t>2011-12-0114</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -7853,7 +7853,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2011-12-114</t>
+          <t>2011-12-0114</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -7895,7 +7895,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2011-12-114</t>
+          <t>2011-12-0114</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2011-12-114</t>
+          <t>2011-12-0114</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2011-12-115</t>
+          <t>2011-12-0115</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -8021,7 +8021,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2011-12-115</t>
+          <t>2011-12-0115</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -8063,7 +8063,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2011-12-115</t>
+          <t>2011-12-0115</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -8105,7 +8105,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2011-12-116</t>
+          <t>2011-12-0116</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -8147,7 +8147,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2011-12-116</t>
+          <t>2011-12-0116</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8189,7 +8189,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2011-12-116</t>
+          <t>2011-12-0116</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2011-12-116</t>
+          <t>2011-12-0116</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8273,7 +8273,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2011-12-116</t>
+          <t>2011-12-0116</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8315,7 +8315,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2011-12-116</t>
+          <t>2011-12-0116</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -8357,7 +8357,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2011-12-116</t>
+          <t>2011-12-0116</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -8399,7 +8399,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2011-12-116</t>
+          <t>2011-12-0116</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -8441,7 +8441,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2011-12-116</t>
+          <t>2011-12-0116</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2011-12-116</t>
+          <t>2011-12-0116</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -8525,7 +8525,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2011-12-116</t>
+          <t>2011-12-0116</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -8567,7 +8567,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2011-12-117</t>
+          <t>2011-12-0117</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2011-12-117</t>
+          <t>2011-12-0117</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -8651,7 +8651,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2011-12-117</t>
+          <t>2011-12-0117</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -8693,7 +8693,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2011-12-117</t>
+          <t>2011-12-0117</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -8735,7 +8735,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2011-12-117</t>
+          <t>2011-12-0117</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -8777,7 +8777,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2011-12-117</t>
+          <t>2011-12-0117</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -8819,7 +8819,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2011-12-117</t>
+          <t>2011-12-0117</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -8861,7 +8861,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2011-12-118</t>
+          <t>2011-12-0118</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -8903,7 +8903,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2011-12-118</t>
+          <t>2011-12-0118</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2011-12-118</t>
+          <t>2011-12-0118</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -8987,7 +8987,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2011-12-118</t>
+          <t>2011-12-0118</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -9029,7 +9029,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2011-12-118</t>
+          <t>2011-12-0118</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -9071,7 +9071,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2011-12-118</t>
+          <t>2011-12-0118</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -9113,7 +9113,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2011-12-118</t>
+          <t>2011-12-0118</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -9155,7 +9155,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2011-12-118</t>
+          <t>2011-12-0118</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -9197,7 +9197,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2011-12-118</t>
+          <t>2011-12-0118</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2011-12-118</t>
+          <t>2011-12-0118</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2011-12-118</t>
+          <t>2011-12-0118</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -9323,7 +9323,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2011-12-119</t>
+          <t>2011-12-0119</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -9365,7 +9365,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2011-12-119</t>
+          <t>2011-12-0119</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -9407,7 +9407,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2011-12-119</t>
+          <t>2011-12-0119</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -9449,7 +9449,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2011-12-120</t>
+          <t>2011-12-0120</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2011-12-120</t>
+          <t>2011-12-0120</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -9533,7 +9533,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2011-12-120</t>
+          <t>2011-12-0120</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -9575,7 +9575,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2011-12-120</t>
+          <t>2011-12-0120</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -9617,7 +9617,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2011-12-120</t>
+          <t>2011-12-0120</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -9659,7 +9659,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2011-12-120</t>
+          <t>2011-12-0120</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -9701,7 +9701,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2011-12-120</t>
+          <t>2011-12-0120</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -9743,7 +9743,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2011-12-120</t>
+          <t>2011-12-0120</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -9785,7 +9785,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2011-12-120</t>
+          <t>2011-12-0120</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2011-12-120</t>
+          <t>2011-12-0120</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -9869,7 +9869,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2011-12-120</t>
+          <t>2011-12-0120</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -9911,7 +9911,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2011-12-121</t>
+          <t>2011-12-0121</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -9953,7 +9953,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2011-12-121</t>
+          <t>2011-12-0121</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -9995,7 +9995,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2011-12-121</t>
+          <t>2011-12-0121</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -10037,7 +10037,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2011-12-121</t>
+          <t>2011-12-0121</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -10079,7 +10079,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2011-12-121</t>
+          <t>2011-12-0121</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -10121,7 +10121,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2011-12-121</t>
+          <t>2011-12-0121</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2011-12-121</t>
+          <t>2011-12-0121</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -10205,7 +10205,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2011-12-121</t>
+          <t>2011-12-0121</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -10247,7 +10247,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2011-12-121</t>
+          <t>2011-12-0121</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -10289,7 +10289,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2011-12-121</t>
+          <t>2011-12-0121</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -10331,7 +10331,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2011-12-122</t>
+          <t>2011-12-0122</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -10373,7 +10373,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2011-12-122</t>
+          <t>2011-12-0122</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -10415,7 +10415,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2011-12-122</t>
+          <t>2011-12-0122</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -10457,7 +10457,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2011-12-122</t>
+          <t>2011-12-0122</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -10499,7 +10499,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2011-12-122</t>
+          <t>2011-12-0122</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -10541,7 +10541,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2011-12-123</t>
+          <t>2011-12-0123</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -10583,7 +10583,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2011-12-123</t>
+          <t>2011-12-0123</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -10625,7 +10625,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2011-12-123</t>
+          <t>2011-12-0123</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -10667,7 +10667,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2011-12-123</t>
+          <t>2011-12-0123</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -10709,7 +10709,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2011-12-123</t>
+          <t>2011-12-0123</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -10751,7 +10751,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2011-12-123</t>
+          <t>2011-12-0123</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -10793,7 +10793,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2011-12-123</t>
+          <t>2011-12-0123</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -10835,7 +10835,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2011-12-123</t>
+          <t>2011-12-0123</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -10877,7 +10877,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2011-12-123</t>
+          <t>2011-12-0123</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -10919,7 +10919,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2011-12-123</t>
+          <t>2011-12-0123</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -10961,7 +10961,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2011-12-124</t>
+          <t>2011-12-0124</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -11003,7 +11003,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2011-12-124</t>
+          <t>2011-12-0124</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -11045,7 +11045,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2011-12-124</t>
+          <t>2011-12-0124</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -11087,7 +11087,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2011-12-124</t>
+          <t>2011-12-0124</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -11129,7 +11129,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2011-12-124</t>
+          <t>2011-12-0124</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -11171,7 +11171,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2011-12-125</t>
+          <t>2011-12-0125</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -11213,7 +11213,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2011-12-125</t>
+          <t>2011-12-0125</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -11255,7 +11255,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2011-12-125</t>
+          <t>2011-12-0125</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -11297,7 +11297,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2011-12-125</t>
+          <t>2011-12-0125</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -11339,7 +11339,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2011-12-125</t>
+          <t>2011-12-0125</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -11381,7 +11381,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2011-12-125</t>
+          <t>2011-12-0125</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -11423,7 +11423,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2011-12-125</t>
+          <t>2011-12-0125</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -11465,7 +11465,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2011-12-125</t>
+          <t>2011-12-0125</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -11507,7 +11507,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2011-12-125</t>
+          <t>2011-12-0125</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -11549,7 +11549,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2011-12-125</t>
+          <t>2011-12-0125</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -11591,7 +11591,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2011-12-125</t>
+          <t>2011-12-0125</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2011-12-125</t>
+          <t>2011-12-0125</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -11675,7 +11675,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>2011-12-125</t>
+          <t>2011-12-0125</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -11717,7 +11717,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2011-12-126</t>
+          <t>2011-12-0126</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -11759,7 +11759,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2011-12-126</t>
+          <t>2011-12-0126</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -11801,7 +11801,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2011-12-127</t>
+          <t>2011-12-0127</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2011-12-127</t>
+          <t>2011-12-0127</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2011-12-127</t>
+          <t>2011-12-0127</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -11927,7 +11927,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2011-12-127</t>
+          <t>2011-12-0127</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -11969,7 +11969,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2011-12-127</t>
+          <t>2011-12-0127</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -12011,7 +12011,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2011-12-127</t>
+          <t>2011-12-0127</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -12053,7 +12053,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2011-12-127</t>
+          <t>2011-12-0127</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -12095,7 +12095,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2011-12-127</t>
+          <t>2011-12-0127</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -12137,7 +12137,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2011-12-127</t>
+          <t>2011-12-0127</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -12179,7 +12179,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2011-12-127</t>
+          <t>2011-12-0127</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -12221,7 +12221,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2011-12-127</t>
+          <t>2011-12-0127</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -12263,7 +12263,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2011-12-127</t>
+          <t>2011-12-0127</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -12305,7 +12305,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2011-12-127</t>
+          <t>2011-12-0127</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -12347,7 +12347,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2011-12-128</t>
+          <t>2011-12-0128</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -12389,7 +12389,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2011-12-128</t>
+          <t>2011-12-0128</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -12431,7 +12431,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2011-12-128</t>
+          <t>2011-12-0128</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -12473,7 +12473,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>2011-12-128</t>
+          <t>2011-12-0128</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -12515,7 +12515,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2011-12-128</t>
+          <t>2011-12-0128</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2011-12-128</t>
+          <t>2011-12-0128</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -12599,7 +12599,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2011-12-129</t>
+          <t>2011-12-0129</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -12641,7 +12641,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2011-12-129</t>
+          <t>2011-12-0129</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -12683,7 +12683,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2011-12-129</t>
+          <t>2011-12-0129</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -12725,7 +12725,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2011-12-129</t>
+          <t>2011-12-0129</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -12767,7 +12767,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2011-12-129</t>
+          <t>2011-12-0129</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -12809,7 +12809,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2011-12-129</t>
+          <t>2011-12-0129</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -12851,7 +12851,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2011-12-129</t>
+          <t>2011-12-0129</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -12893,7 +12893,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2011-12-129</t>
+          <t>2011-12-0129</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -12935,7 +12935,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2011-12-130</t>
+          <t>2011-12-0130</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -12977,7 +12977,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>2011-12-130</t>
+          <t>2011-12-0130</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -13019,7 +13019,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2011-12-130</t>
+          <t>2011-12-0130</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -13061,7 +13061,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>2011-12-130</t>
+          <t>2011-12-0130</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -13103,7 +13103,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2011-12-130</t>
+          <t>2011-12-0130</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -13145,7 +13145,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2011-12-130</t>
+          <t>2011-12-0130</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -13187,7 +13187,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2011-12-130</t>
+          <t>2011-12-0130</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -13229,7 +13229,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>2011-12-130</t>
+          <t>2011-12-0130</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -13271,7 +13271,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>2011-12-130</t>
+          <t>2011-12-0130</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -13313,7 +13313,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2011-12-131</t>
+          <t>2011-12-0131</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -13355,7 +13355,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>2011-12-131</t>
+          <t>2011-12-0131</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -13397,7 +13397,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>2011-12-131</t>
+          <t>2011-12-0131</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -13439,7 +13439,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2011-12-131</t>
+          <t>2011-12-0131</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -13481,7 +13481,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>2011-12-131</t>
+          <t>2011-12-0131</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -13523,7 +13523,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>2011-12-131</t>
+          <t>2011-12-0131</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -13565,7 +13565,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2011-12-131</t>
+          <t>2011-12-0131</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -13607,7 +13607,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>2011-12-201</t>
+          <t>2011-12-0201</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -13649,7 +13649,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>2011-12-201</t>
+          <t>2011-12-0201</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -13691,7 +13691,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2011-12-201</t>
+          <t>2011-12-0201</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -13733,7 +13733,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>2011-12-201</t>
+          <t>2011-12-0201</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -13775,7 +13775,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>2011-12-201</t>
+          <t>2011-12-0201</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -13817,7 +13817,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>2011-12-201</t>
+          <t>2011-12-0201</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -13859,7 +13859,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>2011-12-201</t>
+          <t>2011-12-0201</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -13901,7 +13901,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>2011-12-201</t>
+          <t>2011-12-0201</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -13943,7 +13943,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>2011-12-201</t>
+          <t>2011-12-0201</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -13985,7 +13985,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2011-12-201</t>
+          <t>2011-12-0201</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -14027,7 +14027,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2011-12-201</t>
+          <t>2011-12-0201</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -14069,7 +14069,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>2011-12-202</t>
+          <t>2011-12-0202</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -14111,7 +14111,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>2011-12-202</t>
+          <t>2011-12-0202</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -14153,7 +14153,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2011-12-202</t>
+          <t>2011-12-0202</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -14195,7 +14195,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>2011-12-202</t>
+          <t>2011-12-0202</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -14237,7 +14237,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2011-12-202</t>
+          <t>2011-12-0202</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -14279,7 +14279,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>2011-12-202</t>
+          <t>2011-12-0202</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -14321,7 +14321,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>2011-12-203</t>
+          <t>2011-12-0203</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -14363,7 +14363,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>2011-12-203</t>
+          <t>2011-12-0203</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -14405,7 +14405,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>2011-12-203</t>
+          <t>2011-12-0203</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -14447,7 +14447,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>2011-12-203</t>
+          <t>2011-12-0203</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -14489,7 +14489,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>2011-12-203</t>
+          <t>2011-12-0203</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -14531,7 +14531,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>2011-12-203</t>
+          <t>2011-12-0203</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -14573,7 +14573,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>2011-12-203</t>
+          <t>2011-12-0203</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -14615,7 +14615,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>2011-12-203</t>
+          <t>2011-12-0203</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -14657,7 +14657,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>2011-12-203</t>
+          <t>2011-12-0203</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -14699,7 +14699,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>2011-12-203</t>
+          <t>2011-12-0203</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -14741,7 +14741,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>2011-12-204</t>
+          <t>2011-12-0204</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -14783,7 +14783,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>2011-12-204</t>
+          <t>2011-12-0204</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -14825,7 +14825,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>2011-12-204</t>
+          <t>2011-12-0204</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>2011-12-204</t>
+          <t>2011-12-0204</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -14909,7 +14909,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>2011-12-204</t>
+          <t>2011-12-0204</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -14951,7 +14951,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2011-12-204</t>
+          <t>2011-12-0204</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -14993,7 +14993,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>2011-12-204</t>
+          <t>2011-12-0204</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -15035,7 +15035,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2011-12-204</t>
+          <t>2011-12-0204</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -15077,7 +15077,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>2011-12-204</t>
+          <t>2011-12-0204</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -15119,7 +15119,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>2011-12-204</t>
+          <t>2011-12-0204</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -15161,7 +15161,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>2011-12-204</t>
+          <t>2011-12-0204</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -15203,7 +15203,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>2011-12-204</t>
+          <t>2011-12-0204</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -15245,7 +15245,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>2011-12-204</t>
+          <t>2011-12-0204</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -15287,7 +15287,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2011-12-205</t>
+          <t>2011-12-0205</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -15329,7 +15329,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>2011-12-205</t>
+          <t>2011-12-0205</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -15371,7 +15371,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2011-12-206</t>
+          <t>2011-12-0206</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -15413,7 +15413,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>2011-12-206</t>
+          <t>2011-12-0206</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -15455,7 +15455,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2011-12-206</t>
+          <t>2011-12-0206</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -15497,7 +15497,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>2011-12-206</t>
+          <t>2011-12-0206</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -15539,7 +15539,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>2011-12-206</t>
+          <t>2011-12-0206</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -15581,7 +15581,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2011-12-206</t>
+          <t>2011-12-0206</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -15623,7 +15623,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>2011-12-206</t>
+          <t>2011-12-0206</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -15665,7 +15665,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>2011-12-206</t>
+          <t>2011-12-0206</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -15707,7 +15707,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>2011-12-206</t>
+          <t>2011-12-0206</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -15749,7 +15749,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>2011-12-206</t>
+          <t>2011-12-0206</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -15791,7 +15791,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2011-12-207</t>
+          <t>2011-12-0207</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -15833,7 +15833,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2011-12-207</t>
+          <t>2011-12-0207</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -15875,7 +15875,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>2011-12-207</t>
+          <t>2011-12-0207</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -15917,7 +15917,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>2011-12-207</t>
+          <t>2011-12-0207</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -15959,7 +15959,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>2011-12-207</t>
+          <t>2011-12-0207</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -16001,7 +16001,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>2011-12-207</t>
+          <t>2011-12-0207</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -16043,7 +16043,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2011-12-208</t>
+          <t>2011-12-0208</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -16085,7 +16085,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>2011-12-208</t>
+          <t>2011-12-0208</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -16127,7 +16127,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>2011-12-208</t>
+          <t>2011-12-0208</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -16169,7 +16169,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2011-12-208</t>
+          <t>2011-12-0208</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -16211,7 +16211,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2011-12-208</t>
+          <t>2011-12-0208</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -16253,7 +16253,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2011-12-208</t>
+          <t>2011-12-0208</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -16295,7 +16295,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>2011-12-208</t>
+          <t>2011-12-0208</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -16337,7 +16337,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2011-12-208</t>
+          <t>2011-12-0208</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -16379,7 +16379,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2011-12-208</t>
+          <t>2011-12-0208</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -16421,7 +16421,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>2011-12-208</t>
+          <t>2011-12-0208</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -16463,7 +16463,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2011-12-208</t>
+          <t>2011-12-0208</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -16505,7 +16505,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>2011-12-209</t>
+          <t>2011-12-0209</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -16547,7 +16547,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2011-12-209</t>
+          <t>2011-12-0209</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -16589,7 +16589,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2011-12-209</t>
+          <t>2011-12-0209</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -16631,7 +16631,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2011-12-209</t>
+          <t>2011-12-0209</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -16673,7 +16673,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2011-12-210</t>
+          <t>2011-12-0210</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -16715,7 +16715,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2011-12-210</t>
+          <t>2011-12-0210</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -16757,7 +16757,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2011-12-210</t>
+          <t>2011-12-0210</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -16799,7 +16799,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2011-12-210</t>
+          <t>2011-12-0210</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -16841,7 +16841,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2011-12-210</t>
+          <t>2011-12-0210</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>2011-12-210</t>
+          <t>2011-12-0210</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -16925,7 +16925,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>2011-12-210</t>
+          <t>2011-12-0210</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -16967,7 +16967,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2011-12-210</t>
+          <t>2011-12-0210</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -17009,7 +17009,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2011-12-210</t>
+          <t>2011-12-0210</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -17051,7 +17051,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>2011-12-210</t>
+          <t>2011-12-0210</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -17093,7 +17093,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>2011-12-210</t>
+          <t>2011-12-0210</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -17135,7 +17135,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>2011-12-210</t>
+          <t>2011-12-0210</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -17177,7 +17177,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2011-12-211</t>
+          <t>2011-12-0211</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -17219,7 +17219,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2011-12-211</t>
+          <t>2011-12-0211</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -17261,7 +17261,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>2011-12-211</t>
+          <t>2011-12-0211</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -17303,7 +17303,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>2011-12-211</t>
+          <t>2011-12-0211</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -17345,7 +17345,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2011-12-211</t>
+          <t>2011-12-0211</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -17387,7 +17387,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>2011-12-211</t>
+          <t>2011-12-0211</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -17429,7 +17429,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2011-12-211</t>
+          <t>2011-12-0211</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -17471,7 +17471,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2011-12-211</t>
+          <t>2011-12-0211</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -17513,7 +17513,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>2011-12-212</t>
+          <t>2011-12-0212</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -17555,7 +17555,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>2011-12-212</t>
+          <t>2011-12-0212</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -17597,7 +17597,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>2011-12-212</t>
+          <t>2011-12-0212</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -17639,7 +17639,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>2011-12-212</t>
+          <t>2011-12-0212</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -17681,7 +17681,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>2011-12-212</t>
+          <t>2011-12-0212</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -17723,7 +17723,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>2011-12-212</t>
+          <t>2011-12-0212</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -17765,7 +17765,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>2011-12-213</t>
+          <t>2011-12-0213</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -17807,7 +17807,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2011-12-213</t>
+          <t>2011-12-0213</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -17849,7 +17849,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>2011-12-213</t>
+          <t>2011-12-0213</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -17891,7 +17891,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>2011-12-213</t>
+          <t>2011-12-0213</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -17933,7 +17933,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2011-12-213</t>
+          <t>2011-12-0213</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -17975,7 +17975,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2011-12-213</t>
+          <t>2011-12-0213</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -18017,7 +18017,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>2011-12-214</t>
+          <t>2011-12-0214</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -18059,7 +18059,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>2011-12-214</t>
+          <t>2011-12-0214</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -18101,7 +18101,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>2011-12-214</t>
+          <t>2011-12-0214</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -18143,7 +18143,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>2011-12-214</t>
+          <t>2011-12-0214</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -18185,7 +18185,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>2011-12-214</t>
+          <t>2011-12-0214</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -18227,7 +18227,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>2011-12-214</t>
+          <t>2011-12-0214</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -18269,7 +18269,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>2011-12-214</t>
+          <t>2011-12-0214</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -18311,7 +18311,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>2011-12-214</t>
+          <t>2011-12-0214</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -18353,7 +18353,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>2011-12-214</t>
+          <t>2011-12-0214</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -18395,7 +18395,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>2011-12-215</t>
+          <t>2011-12-0215</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -18437,7 +18437,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>2011-12-215</t>
+          <t>2011-12-0215</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -18479,7 +18479,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>2011-12-215</t>
+          <t>2011-12-0215</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -18521,7 +18521,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>2011-12-215</t>
+          <t>2011-12-0215</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -18563,7 +18563,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>2011-12-215</t>
+          <t>2011-12-0215</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -18605,7 +18605,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>2011-12-215</t>
+          <t>2011-12-0215</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -18647,7 +18647,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>2011-12-215</t>
+          <t>2011-12-0215</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -18689,7 +18689,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>2011-12-215</t>
+          <t>2011-12-0215</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -18731,7 +18731,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2011-12-215</t>
+          <t>2011-12-0215</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -18773,7 +18773,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>2011-12-215</t>
+          <t>2011-12-0215</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -18815,7 +18815,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>2011-12-215</t>
+          <t>2011-12-0215</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -18857,7 +18857,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>2011-12-215</t>
+          <t>2011-12-0215</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -18899,7 +18899,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2011-12-215</t>
+          <t>2011-12-0215</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -18941,7 +18941,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>2011-12-216</t>
+          <t>2011-12-0216</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -18983,7 +18983,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>2011-12-216</t>
+          <t>2011-12-0216</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -19025,7 +19025,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>2011-12-216</t>
+          <t>2011-12-0216</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -19067,7 +19067,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>2011-12-217</t>
+          <t>2011-12-0217</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -19109,7 +19109,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>2011-12-217</t>
+          <t>2011-12-0217</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -19151,7 +19151,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>2011-12-217</t>
+          <t>2011-12-0217</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -19193,7 +19193,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>2011-12-217</t>
+          <t>2011-12-0217</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -19235,7 +19235,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>2011-12-217</t>
+          <t>2011-12-0217</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -19277,7 +19277,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>2011-12-217</t>
+          <t>2011-12-0217</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -19319,7 +19319,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>2011-12-217</t>
+          <t>2011-12-0217</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -19361,7 +19361,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>2011-12-217</t>
+          <t>2011-12-0217</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -19403,7 +19403,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>2011-12-217</t>
+          <t>2011-12-0217</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -19445,7 +19445,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>2011-12-217</t>
+          <t>2011-12-0217</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -19487,7 +19487,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>2011-12-217</t>
+          <t>2011-12-0217</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -19529,7 +19529,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>2011-12-218</t>
+          <t>2011-12-0218</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -19571,7 +19571,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2011-12-218</t>
+          <t>2011-12-0218</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -19613,7 +19613,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>2011-12-218</t>
+          <t>2011-12-0218</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -19655,7 +19655,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2011-12-218</t>
+          <t>2011-12-0218</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -19697,7 +19697,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>2011-12-219</t>
+          <t>2011-12-0219</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -19739,7 +19739,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>2011-12-219</t>
+          <t>2011-12-0219</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -19781,7 +19781,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>2011-12-219</t>
+          <t>2011-12-0219</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -19823,7 +19823,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>2011-12-219</t>
+          <t>2011-12-0219</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -19865,7 +19865,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2011-12-219</t>
+          <t>2011-12-0219</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -19907,7 +19907,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>2011-12-219</t>
+          <t>2011-12-0219</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -19949,7 +19949,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>2011-12-219</t>
+          <t>2011-12-0219</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -19991,7 +19991,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>2011-12-219</t>
+          <t>2011-12-0219</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -20033,7 +20033,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2011-12-219</t>
+          <t>2011-12-0219</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -20075,7 +20075,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>2011-12-219</t>
+          <t>2011-12-0219</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -20117,7 +20117,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>2011-12-220</t>
+          <t>2011-12-0220</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -20159,7 +20159,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2011-12-220</t>
+          <t>2011-12-0220</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -20201,7 +20201,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>2011-12-220</t>
+          <t>2011-12-0220</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -20243,7 +20243,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2011-12-220</t>
+          <t>2011-12-0220</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -20285,7 +20285,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>2011-12-220</t>
+          <t>2011-12-0220</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -20327,7 +20327,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2011-12-220</t>
+          <t>2011-12-0220</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -20369,7 +20369,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>2011-12-220</t>
+          <t>2011-12-0220</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -20411,7 +20411,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>2011-12-220</t>
+          <t>2011-12-0220</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -20453,7 +20453,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>2011-12-220</t>
+          <t>2011-12-0220</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -20495,7 +20495,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>2011-12-220</t>
+          <t>2011-12-0220</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -20537,7 +20537,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2011-12-220</t>
+          <t>2011-12-0220</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -20579,7 +20579,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>2011-12-221</t>
+          <t>2011-12-0221</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -20621,7 +20621,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2011-12-221</t>
+          <t>2011-12-0221</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -20663,7 +20663,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>2011-12-221</t>
+          <t>2011-12-0221</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -20705,7 +20705,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>2011-12-221</t>
+          <t>2011-12-0221</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -20747,7 +20747,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>2011-12-221</t>
+          <t>2011-12-0221</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -20789,7 +20789,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>2011-12-222</t>
+          <t>2011-12-0222</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -20831,7 +20831,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2011-12-222</t>
+          <t>2011-12-0222</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -20873,7 +20873,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>2011-12-222</t>
+          <t>2011-12-0222</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -20915,7 +20915,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2011-12-222</t>
+          <t>2011-12-0222</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -20957,7 +20957,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>2011-12-222</t>
+          <t>2011-12-0222</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -20999,7 +20999,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>2011-12-222</t>
+          <t>2011-12-0222</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -21041,7 +21041,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>2011-12-222</t>
+          <t>2011-12-0222</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -21083,7 +21083,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2011-12-222</t>
+          <t>2011-12-0222</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -21125,7 +21125,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>2011-12-222</t>
+          <t>2011-12-0222</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -21167,7 +21167,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2011-12-222</t>
+          <t>2011-12-0222</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -21209,7 +21209,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>2011-12-222</t>
+          <t>2011-12-0222</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -21251,7 +21251,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>2011-12-222</t>
+          <t>2011-12-0222</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -21293,7 +21293,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>2011-12-222</t>
+          <t>2011-12-0222</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -21335,7 +21335,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>2011-12-223</t>
+          <t>2011-12-0223</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -21377,7 +21377,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>2011-12-223</t>
+          <t>2011-12-0223</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -21419,7 +21419,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2011-12-223</t>
+          <t>2011-12-0223</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -21461,7 +21461,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>2011-12-223</t>
+          <t>2011-12-0223</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -21503,7 +21503,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>2011-12-228</t>
+          <t>2011-12-0228</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -21545,7 +21545,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>2011-12-228</t>
+          <t>2011-12-0228</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -21587,7 +21587,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>2011-12-228</t>
+          <t>2011-12-0228</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -21629,7 +21629,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2011-12-228</t>
+          <t>2011-12-0228</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -21671,7 +21671,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>2011-12-228</t>
+          <t>2011-12-0228</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -21713,7 +21713,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2011-12-228</t>
+          <t>2011-12-0228</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -21755,7 +21755,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2011-12-228</t>
+          <t>2011-12-0228</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -21797,7 +21797,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>2011-12-228</t>
+          <t>2011-12-0228</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -21839,7 +21839,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>2011-12-228</t>
+          <t>2011-12-0228</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -21881,7 +21881,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2011-12-229</t>
+          <t>2011-12-0229</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -21923,7 +21923,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>2011-12-229</t>
+          <t>2011-12-0229</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -21965,7 +21965,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2011-12-229</t>
+          <t>2011-12-0229</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -22007,7 +22007,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>2011-12-229</t>
+          <t>2011-12-0229</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -22049,7 +22049,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>2011-12-229</t>
+          <t>2011-12-0229</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -22091,7 +22091,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2011-12-229</t>
+          <t>2011-12-0229</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -22133,7 +22133,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>2011-12-229</t>
+          <t>2011-12-0229</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -22175,7 +22175,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>2011-12-229</t>
+          <t>2011-12-0229</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -22217,7 +22217,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2011-12-229</t>
+          <t>2011-12-0229</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -22259,7 +22259,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2011-12-229</t>
+          <t>2011-12-0229</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -22301,7 +22301,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>2011-12-229</t>
+          <t>2011-12-0229</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -22343,7 +22343,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>2011-12-229</t>
+          <t>2011-12-0229</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -22385,7 +22385,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>2011-12-301</t>
+          <t>2011-12-0301</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -22427,7 +22427,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>2011-12-301</t>
+          <t>2011-12-0301</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -22469,7 +22469,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2011-12-301</t>
+          <t>2011-12-0301</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -22511,7 +22511,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2011-12-301</t>
+          <t>2011-12-0301</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -22553,7 +22553,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>2011-12-302</t>
+          <t>2011-12-0302</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -22595,7 +22595,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>2011-12-302</t>
+          <t>2011-12-0302</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -22637,7 +22637,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2011-12-302</t>
+          <t>2011-12-0302</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -22679,7 +22679,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>2011-12-302</t>
+          <t>2011-12-0302</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -22721,7 +22721,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>2011-12-302</t>
+          <t>2011-12-0302</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -22763,7 +22763,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2011-12-302</t>
+          <t>2011-12-0302</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -22805,7 +22805,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2011-12-302</t>
+          <t>2011-12-0302</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -22847,7 +22847,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2011-12-302</t>
+          <t>2011-12-0302</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -22889,7 +22889,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2011-12-302</t>
+          <t>2011-12-0302</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -22931,7 +22931,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2011-12-302</t>
+          <t>2011-12-0302</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -22973,7 +22973,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>2011-12-302</t>
+          <t>2011-12-0302</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -23015,7 +23015,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2011-12-303</t>
+          <t>2011-12-0303</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -23057,7 +23057,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>2011-12-303</t>
+          <t>2011-12-0303</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -23099,7 +23099,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2011-12-303</t>
+          <t>2011-12-0303</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -23141,7 +23141,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2011-12-303</t>
+          <t>2011-12-0303</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -23183,7 +23183,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2011-12-303</t>
+          <t>2011-12-0303</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -23225,7 +23225,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2011-12-303</t>
+          <t>2011-12-0303</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -23267,7 +23267,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2011-12-303</t>
+          <t>2011-12-0303</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -23309,7 +23309,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>2011-12-304</t>
+          <t>2011-12-0304</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -23351,7 +23351,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2011-12-304</t>
+          <t>2011-12-0304</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -23393,7 +23393,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>2011-12-304</t>
+          <t>2011-12-0304</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -23435,7 +23435,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>2011-12-304</t>
+          <t>2011-12-0304</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -23477,7 +23477,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2011-12-304</t>
+          <t>2011-12-0304</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -23519,7 +23519,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2011-12-304</t>
+          <t>2011-12-0304</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -23561,7 +23561,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2011-12-304</t>
+          <t>2011-12-0304</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -23603,7 +23603,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2011-12-304</t>
+          <t>2011-12-0304</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -23645,7 +23645,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2011-12-305</t>
+          <t>2011-12-0305</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -23687,7 +23687,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2011-12-305</t>
+          <t>2011-12-0305</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -23729,7 +23729,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>2011-12-305</t>
+          <t>2011-12-0305</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -23771,7 +23771,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2011-12-305</t>
+          <t>2011-12-0305</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -23813,7 +23813,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2011-12-305</t>
+          <t>2011-12-0305</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -23855,7 +23855,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>2011-12-305</t>
+          <t>2011-12-0305</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -23897,7 +23897,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>2011-12-305</t>
+          <t>2011-12-0305</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -23939,7 +23939,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>2011-12-305</t>
+          <t>2011-12-0305</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -23981,7 +23981,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>2011-12-305</t>
+          <t>2011-12-0305</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -24023,7 +24023,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>2011-12-306</t>
+          <t>2011-12-0306</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -24065,7 +24065,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>2011-12-306</t>
+          <t>2011-12-0306</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -24107,7 +24107,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>2011-12-306</t>
+          <t>2011-12-0306</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -24149,7 +24149,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>2011-12-306</t>
+          <t>2011-12-0306</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -24191,7 +24191,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>2011-12-306</t>
+          <t>2011-12-0306</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -24233,7 +24233,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>2011-12-306</t>
+          <t>2011-12-0306</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -24275,7 +24275,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>2011-12-307</t>
+          <t>2011-12-0307</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -24317,7 +24317,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>2011-12-307</t>
+          <t>2011-12-0307</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -24359,7 +24359,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>2011-12-307</t>
+          <t>2011-12-0307</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -24401,7 +24401,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>2011-12-307</t>
+          <t>2011-12-0307</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -24443,7 +24443,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>2011-12-307</t>
+          <t>2011-12-0307</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -24485,7 +24485,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>2011-12-307</t>
+          <t>2011-12-0307</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -24527,7 +24527,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>2011-12-307</t>
+          <t>2011-12-0307</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -24569,7 +24569,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>2011-12-307</t>
+          <t>2011-12-0307</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -24611,7 +24611,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2011-12-307</t>
+          <t>2011-12-0307</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -24653,7 +24653,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>2011-12-307</t>
+          <t>2011-12-0307</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -24695,7 +24695,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2011-12-307</t>
+          <t>2011-12-0307</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -24737,7 +24737,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>2011-12-307</t>
+          <t>2011-12-0307</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -24779,7 +24779,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2011-12-307</t>
+          <t>2011-12-0307</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -24821,7 +24821,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2011-12-308</t>
+          <t>2011-12-0308</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -24863,7 +24863,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2011-12-308</t>
+          <t>2011-12-0308</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -24905,7 +24905,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>2011-12-309</t>
+          <t>2011-12-0309</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -24947,7 +24947,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2011-12-309</t>
+          <t>2011-12-0309</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -24989,7 +24989,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>2011-12-309</t>
+          <t>2011-12-0309</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -25031,7 +25031,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>2011-12-309</t>
+          <t>2011-12-0309</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -25073,7 +25073,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>2011-12-309</t>
+          <t>2011-12-0309</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -25115,7 +25115,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2011-12-309</t>
+          <t>2011-12-0309</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -25157,7 +25157,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>2011-12-309</t>
+          <t>2011-12-0309</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -25199,7 +25199,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2011-12-309</t>
+          <t>2011-12-0309</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -25241,7 +25241,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2011-12-309</t>
+          <t>2011-12-0309</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -25283,7 +25283,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2011-12-309</t>
+          <t>2011-12-0309</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -25325,7 +25325,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>2011-12-310</t>
+          <t>2011-12-0310</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -25367,7 +25367,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2011-12-310</t>
+          <t>2011-12-0310</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -25409,7 +25409,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>2011-12-310</t>
+          <t>2011-12-0310</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -25451,7 +25451,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>2011-12-310</t>
+          <t>2011-12-0310</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -25493,7 +25493,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2011-12-310</t>
+          <t>2011-12-0310</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -25535,7 +25535,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>2011-12-310</t>
+          <t>2011-12-0310</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -25577,7 +25577,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2011-12-310</t>
+          <t>2011-12-0310</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -25619,7 +25619,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>2011-12-310</t>
+          <t>2011-12-0310</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -25661,7 +25661,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>2011-12-310</t>
+          <t>2011-12-0310</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -25703,7 +25703,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>2011-12-311</t>
+          <t>2011-12-0311</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -25745,7 +25745,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>2011-12-311</t>
+          <t>2011-12-0311</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -25787,7 +25787,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>2011-12-311</t>
+          <t>2011-12-0311</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -25829,7 +25829,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>2011-12-311</t>
+          <t>2011-12-0311</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -25871,7 +25871,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>2011-12-311</t>
+          <t>2011-12-0311</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -25913,7 +25913,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>2011-12-311</t>
+          <t>2011-12-0311</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -25955,7 +25955,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>2011-12-311</t>
+          <t>2011-12-0311</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -25997,7 +25997,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>2011-12-311</t>
+          <t>2011-12-0311</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -26039,7 +26039,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2011-12-312</t>
+          <t>2011-12-0312</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -26081,7 +26081,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2011-12-312</t>
+          <t>2011-12-0312</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -26123,7 +26123,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>2011-12-312</t>
+          <t>2011-12-0312</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -26165,7 +26165,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>2011-12-312</t>
+          <t>2011-12-0312</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -26207,7 +26207,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2011-12-312</t>
+          <t>2011-12-0312</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -26249,7 +26249,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>2011-12-312</t>
+          <t>2011-12-0312</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -26291,7 +26291,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>2011-12-312</t>
+          <t>2011-12-0312</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -26333,7 +26333,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2011-12-313</t>
+          <t>2011-12-0313</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -26375,7 +26375,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2011-12-313</t>
+          <t>2011-12-0313</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -26417,7 +26417,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2011-12-313</t>
+          <t>2011-12-0313</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -26459,7 +26459,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2011-12-313</t>
+          <t>2011-12-0313</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -26501,7 +26501,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2011-12-313</t>
+          <t>2011-12-0313</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -26543,7 +26543,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>2011-12-313</t>
+          <t>2011-12-0313</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -26585,7 +26585,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>2011-12-313</t>
+          <t>2011-12-0313</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -26627,7 +26627,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>2011-12-313</t>
+          <t>2011-12-0313</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -26669,7 +26669,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2011-12-314</t>
+          <t>2011-12-0314</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -26711,7 +26711,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>2011-12-314</t>
+          <t>2011-12-0314</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -26753,7 +26753,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>2011-12-314</t>
+          <t>2011-12-0314</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -26795,7 +26795,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2011-12-314</t>
+          <t>2011-12-0314</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -26837,7 +26837,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2011-12-314</t>
+          <t>2011-12-0314</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -26879,7 +26879,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>2011-12-314</t>
+          <t>2011-12-0314</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -26921,7 +26921,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>2011-12-314</t>
+          <t>2011-12-0314</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -26963,7 +26963,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>2011-12-314</t>
+          <t>2011-12-0314</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -27005,7 +27005,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2011-12-314</t>
+          <t>2011-12-0314</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -27047,7 +27047,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2011-12-314</t>
+          <t>2011-12-0314</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -27089,7 +27089,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2011-12-314</t>
+          <t>2011-12-0314</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -27131,7 +27131,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2011-12-314</t>
+          <t>2011-12-0314</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -27173,7 +27173,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2011-12-315</t>
+          <t>2011-12-0315</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -27215,7 +27215,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>2011-12-315</t>
+          <t>2011-12-0315</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -27257,7 +27257,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>2011-12-315</t>
+          <t>2011-12-0315</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -27299,7 +27299,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>2011-12-315</t>
+          <t>2011-12-0315</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -27341,7 +27341,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>2011-12-315</t>
+          <t>2011-12-0315</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -27383,7 +27383,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>2011-12-316</t>
+          <t>2011-12-0316</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -27425,7 +27425,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2011-12-316</t>
+          <t>2011-12-0316</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -27467,7 +27467,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>2011-12-316</t>
+          <t>2011-12-0316</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -27509,7 +27509,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>2011-12-316</t>
+          <t>2011-12-0316</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -27551,7 +27551,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>2011-12-316</t>
+          <t>2011-12-0316</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -27593,7 +27593,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2011-12-316</t>
+          <t>2011-12-0316</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -27635,7 +27635,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2011-12-316</t>
+          <t>2011-12-0316</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -27677,7 +27677,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2011-12-316</t>
+          <t>2011-12-0316</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -27719,7 +27719,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>2011-12-316</t>
+          <t>2011-12-0316</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -27761,7 +27761,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>2011-12-316</t>
+          <t>2011-12-0316</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -27803,7 +27803,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2011-12-316</t>
+          <t>2011-12-0316</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -27845,7 +27845,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>2011-12-317</t>
+          <t>2011-12-0317</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -27887,7 +27887,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2011-12-317</t>
+          <t>2011-12-0317</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -27929,7 +27929,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>2011-12-317</t>
+          <t>2011-12-0317</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -27971,7 +27971,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>2011-12-317</t>
+          <t>2011-12-0317</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -28013,7 +28013,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>2011-12-317</t>
+          <t>2011-12-0317</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -28055,7 +28055,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>2011-12-317</t>
+          <t>2011-12-0317</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -28097,7 +28097,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>2011-12-317</t>
+          <t>2011-12-0317</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -28139,7 +28139,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>2011-12-317</t>
+          <t>2011-12-0317</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -28181,7 +28181,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>2011-12-318</t>
+          <t>2011-12-0318</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -28223,7 +28223,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>2011-12-318</t>
+          <t>2011-12-0318</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -28265,7 +28265,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>2011-12-318</t>
+          <t>2011-12-0318</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -28307,7 +28307,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2011-12-318</t>
+          <t>2011-12-0318</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -28349,7 +28349,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>2011-12-318</t>
+          <t>2011-12-0318</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -28391,7 +28391,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>2011-12-318</t>
+          <t>2011-12-0318</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -28433,7 +28433,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>2011-12-318</t>
+          <t>2011-12-0318</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -28475,7 +28475,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>2011-12-318</t>
+          <t>2011-12-0318</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -28517,7 +28517,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>2011-12-319</t>
+          <t>2011-12-0319</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -28559,7 +28559,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>2011-12-319</t>
+          <t>2011-12-0319</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -28601,7 +28601,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2011-12-319</t>
+          <t>2011-12-0319</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -28643,7 +28643,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>2011-12-319</t>
+          <t>2011-12-0319</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -28685,7 +28685,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>2011-12-319</t>
+          <t>2011-12-0319</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -28727,7 +28727,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>2011-12-319</t>
+          <t>2011-12-0319</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -28769,7 +28769,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>2011-12-320</t>
+          <t>2011-12-0320</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -28811,7 +28811,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>2011-12-320</t>
+          <t>2011-12-0320</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -28853,7 +28853,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>2011-12-320</t>
+          <t>2011-12-0320</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -28895,7 +28895,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>2011-12-320</t>
+          <t>2011-12-0320</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -28937,7 +28937,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>2011-12-320</t>
+          <t>2011-12-0320</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -28979,7 +28979,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>2011-12-320</t>
+          <t>2011-12-0320</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -29021,7 +29021,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>2011-12-320</t>
+          <t>2011-12-0320</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -29063,7 +29063,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>2011-12-321</t>
+          <t>2011-12-0321</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -29105,7 +29105,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2011-12-321</t>
+          <t>2011-12-0321</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -29147,7 +29147,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2011-12-321</t>
+          <t>2011-12-0321</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -29189,7 +29189,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2011-12-321</t>
+          <t>2011-12-0321</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -29231,7 +29231,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>2011-12-321</t>
+          <t>2011-12-0321</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
@@ -29273,7 +29273,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>2011-12-321</t>
+          <t>2011-12-0321</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -29315,7 +29315,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>2011-12-321</t>
+          <t>2011-12-0321</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -29357,7 +29357,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>2011-12-321</t>
+          <t>2011-12-0321</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -29399,7 +29399,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2011-12-321</t>
+          <t>2011-12-0321</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -29441,7 +29441,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>2011-12-321</t>
+          <t>2011-12-0321</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -29483,7 +29483,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>2011-12-322</t>
+          <t>2011-12-0322</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -29525,7 +29525,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2011-12-322</t>
+          <t>2011-12-0322</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -29567,7 +29567,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>2011-12-322</t>
+          <t>2011-12-0322</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -29609,7 +29609,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>2011-12-322</t>
+          <t>2011-12-0322</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -29651,7 +29651,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>2011-12-322</t>
+          <t>2011-12-0322</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -29693,7 +29693,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>2011-12-322</t>
+          <t>2011-12-0322</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -29735,7 +29735,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>2011-12-323</t>
+          <t>2011-12-0323</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -29777,7 +29777,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>2011-12-323</t>
+          <t>2011-12-0323</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -29819,7 +29819,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>2011-12-323</t>
+          <t>2011-12-0323</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
@@ -29861,7 +29861,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>2011-12-323</t>
+          <t>2011-12-0323</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -29903,7 +29903,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>2011-12-323</t>
+          <t>2011-12-0323</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -29945,7 +29945,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>2011-12-323</t>
+          <t>2011-12-0323</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -29987,7 +29987,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>2011-12-323</t>
+          <t>2011-12-0323</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -30029,7 +30029,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>2011-12-323</t>
+          <t>2011-12-0323</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -30071,7 +30071,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2011-12-323</t>
+          <t>2011-12-0323</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -30113,7 +30113,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>2011-12-323</t>
+          <t>2011-12-0323</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -30155,7 +30155,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2011-12-323</t>
+          <t>2011-12-0323</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -30197,7 +30197,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>2011-12-324</t>
+          <t>2011-12-0324</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -30239,7 +30239,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>2011-12-324</t>
+          <t>2011-12-0324</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -30281,7 +30281,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>2011-12-324</t>
+          <t>2011-12-0324</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -30323,7 +30323,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>2011-12-324</t>
+          <t>2011-12-0324</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -30365,7 +30365,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>2011-12-324</t>
+          <t>2011-12-0324</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -30407,7 +30407,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>2011-12-324</t>
+          <t>2011-12-0324</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -30449,7 +30449,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>2011-12-324</t>
+          <t>2011-12-0324</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -30491,7 +30491,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>2011-12-324</t>
+          <t>2011-12-0324</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -30533,7 +30533,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>2011-12-324</t>
+          <t>2011-12-0324</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -30575,7 +30575,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>2011-12-325</t>
+          <t>2011-12-0325</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -30617,7 +30617,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>2011-12-325</t>
+          <t>2011-12-0325</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -30659,7 +30659,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>2011-12-325</t>
+          <t>2011-12-0325</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -30701,7 +30701,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>2011-12-325</t>
+          <t>2011-12-0325</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -30743,7 +30743,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>2011-12-325</t>
+          <t>2011-12-0325</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -30785,7 +30785,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>2011-12-325</t>
+          <t>2011-12-0325</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -30827,7 +30827,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>2011-12-325</t>
+          <t>2011-12-0325</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -30869,7 +30869,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>2011-12-325</t>
+          <t>2011-12-0325</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -30911,7 +30911,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>2011-12-326</t>
+          <t>2011-12-0326</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -30953,7 +30953,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>2011-12-326</t>
+          <t>2011-12-0326</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -30995,7 +30995,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>2011-12-326</t>
+          <t>2011-12-0326</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -31037,7 +31037,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>2011-12-326</t>
+          <t>2011-12-0326</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -31079,7 +31079,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>2011-12-326</t>
+          <t>2011-12-0326</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -31121,7 +31121,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>2011-12-326</t>
+          <t>2011-12-0326</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -31163,7 +31163,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>2011-12-326</t>
+          <t>2011-12-0326</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
@@ -31205,7 +31205,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>2011-12-326</t>
+          <t>2011-12-0326</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -31247,7 +31247,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>2011-12-326</t>
+          <t>2011-12-0326</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -31289,7 +31289,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>2011-12-327</t>
+          <t>2011-12-0327</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
@@ -31331,7 +31331,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>2011-12-327</t>
+          <t>2011-12-0327</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -31373,7 +31373,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>2011-12-327</t>
+          <t>2011-12-0327</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -31415,7 +31415,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>2011-12-327</t>
+          <t>2011-12-0327</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -31457,7 +31457,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>2011-12-327</t>
+          <t>2011-12-0327</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -31499,7 +31499,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>2011-12-327</t>
+          <t>2011-12-0327</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -31541,7 +31541,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>2011-12-327</t>
+          <t>2011-12-0327</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -31583,7 +31583,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>2011-12-328</t>
+          <t>2011-12-0328</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -31625,7 +31625,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>2011-12-328</t>
+          <t>2011-12-0328</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
@@ -31667,7 +31667,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>2011-12-328</t>
+          <t>2011-12-0328</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -31709,7 +31709,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>2011-12-328</t>
+          <t>2011-12-0328</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -31751,7 +31751,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>2011-12-328</t>
+          <t>2011-12-0328</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
@@ -31793,7 +31793,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>2011-12-328</t>
+          <t>2011-12-0328</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -31835,7 +31835,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>2011-12-328</t>
+          <t>2011-12-0328</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -31877,7 +31877,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>2011-12-328</t>
+          <t>2011-12-0328</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -31919,7 +31919,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>2011-12-328</t>
+          <t>2011-12-0328</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
@@ -31961,7 +31961,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>2011-12-328</t>
+          <t>2011-12-0328</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -32003,7 +32003,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>2011-12-329</t>
+          <t>2011-12-0329</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -32045,7 +32045,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>2011-12-329</t>
+          <t>2011-12-0329</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
@@ -32087,7 +32087,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>2011-12-329</t>
+          <t>2011-12-0329</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -32129,7 +32129,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>2011-12-329</t>
+          <t>2011-12-0329</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -32171,7 +32171,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>2011-12-330</t>
+          <t>2011-12-0330</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
@@ -32213,7 +32213,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>2011-12-330</t>
+          <t>2011-12-0330</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -32255,7 +32255,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>2011-12-330</t>
+          <t>2011-12-0330</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -32297,7 +32297,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>2011-12-330</t>
+          <t>2011-12-0330</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -32339,7 +32339,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>2011-12-330</t>
+          <t>2011-12-0330</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -32381,7 +32381,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>2011-12-330</t>
+          <t>2011-12-0330</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -32423,7 +32423,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>2011-12-330</t>
+          <t>2011-12-0330</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -32465,7 +32465,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>2011-12-330</t>
+          <t>2011-12-0330</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -32507,7 +32507,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>2011-12-330</t>
+          <t>2011-12-0330</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -32549,7 +32549,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>2011-12-330</t>
+          <t>2011-12-0330</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -32591,7 +32591,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>2011-12-330</t>
+          <t>2011-12-0330</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
@@ -32633,7 +32633,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>2011-12-330</t>
+          <t>2011-12-0330</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -32675,7 +32675,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>2011-12-331</t>
+          <t>2011-12-0331</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
@@ -32717,7 +32717,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>2011-12-331</t>
+          <t>2011-12-0331</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -32759,7 +32759,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>2011-12-331</t>
+          <t>2011-12-0331</t>
         </is>
       </c>
       <c r="C772" t="inlineStr">
@@ -32801,7 +32801,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>2011-12-331</t>
+          <t>2011-12-0331</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -32843,7 +32843,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>2011-12-331</t>
+          <t>2011-12-0331</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
@@ -32885,7 +32885,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>2011-12-331</t>
+          <t>2011-12-0331</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
@@ -32927,7 +32927,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>2011-12-331</t>
+          <t>2011-12-0331</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -32969,7 +32969,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>2011-12-331</t>
+          <t>2011-12-0331</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
@@ -33011,7 +33011,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>2011-12-401</t>
+          <t>2011-12-0401</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -33053,7 +33053,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>2011-12-401</t>
+          <t>2011-12-0401</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -33095,7 +33095,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>2011-12-401</t>
+          <t>2011-12-0401</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -33137,7 +33137,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>2011-12-401</t>
+          <t>2011-12-0401</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
@@ -33179,7 +33179,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>2011-12-401</t>
+          <t>2011-12-0401</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
@@ -33221,7 +33221,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>2011-12-401</t>
+          <t>2011-12-0401</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
@@ -33263,7 +33263,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>2011-12-401</t>
+          <t>2011-12-0401</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
@@ -33305,7 +33305,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>2011-12-401</t>
+          <t>2011-12-0401</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
@@ -33347,7 +33347,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>2011-12-402</t>
+          <t>2011-12-0402</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
@@ -33389,7 +33389,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>2011-12-402</t>
+          <t>2011-12-0402</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
@@ -33431,7 +33431,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>2011-12-402</t>
+          <t>2011-12-0402</t>
         </is>
       </c>
       <c r="C788" t="inlineStr">
@@ -33473,7 +33473,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>2011-12-402</t>
+          <t>2011-12-0402</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
@@ -33515,7 +33515,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>2011-12-402</t>
+          <t>2011-12-0402</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -33557,7 +33557,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>2011-12-402</t>
+          <t>2011-12-0402</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
@@ -33599,7 +33599,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>2011-12-403</t>
+          <t>2011-12-0403</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
@@ -33641,7 +33641,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>2011-12-403</t>
+          <t>2011-12-0403</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
@@ -33683,7 +33683,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>2011-12-403</t>
+          <t>2011-12-0403</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
@@ -33725,7 +33725,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>2011-12-403</t>
+          <t>2011-12-0403</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
@@ -33767,7 +33767,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>2011-12-403</t>
+          <t>2011-12-0403</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
@@ -33809,7 +33809,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>2011-12-403</t>
+          <t>2011-12-0403</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
@@ -33851,7 +33851,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>2011-12-403</t>
+          <t>2011-12-0403</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -33893,7 +33893,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>2011-12-403</t>
+          <t>2011-12-0403</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -33935,7 +33935,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>2011-12-404</t>
+          <t>2011-12-0404</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
@@ -33977,7 +33977,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>2011-12-404</t>
+          <t>2011-12-0404</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -34019,7 +34019,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>2011-12-404</t>
+          <t>2011-12-0404</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -34061,7 +34061,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>2011-12-404</t>
+          <t>2011-12-0404</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
@@ -34103,7 +34103,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>2011-12-404</t>
+          <t>2011-12-0404</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
@@ -34145,7 +34145,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>2011-12-404</t>
+          <t>2011-12-0404</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
@@ -34187,7 +34187,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>2011-12-404</t>
+          <t>2011-12-0404</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
@@ -34229,7 +34229,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>2011-12-404</t>
+          <t>2011-12-0404</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
@@ -34271,7 +34271,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>2011-12-404</t>
+          <t>2011-12-0404</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
@@ -34313,7 +34313,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>2011-12-404</t>
+          <t>2011-12-0404</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -34355,7 +34355,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>2011-12-404</t>
+          <t>2011-12-0404</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
@@ -34397,7 +34397,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>2011-12-404</t>
+          <t>2011-12-0404</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -34439,7 +34439,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>2011-12-405</t>
+          <t>2011-12-0405</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
@@ -34481,7 +34481,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>2011-12-405</t>
+          <t>2011-12-0405</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -34523,7 +34523,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>2011-12-405</t>
+          <t>2011-12-0405</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -34565,7 +34565,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>2011-12-405</t>
+          <t>2011-12-0405</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -34607,7 +34607,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>2011-12-406</t>
+          <t>2011-12-0406</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -34649,7 +34649,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>2011-12-406</t>
+          <t>2011-12-0406</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -34691,7 +34691,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>2011-12-406</t>
+          <t>2011-12-0406</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -34733,7 +34733,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>2011-12-406</t>
+          <t>2011-12-0406</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -34775,7 +34775,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>2011-12-406</t>
+          <t>2011-12-0406</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -34817,7 +34817,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>2011-12-406</t>
+          <t>2011-12-0406</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
@@ -34859,7 +34859,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>2011-12-406</t>
+          <t>2011-12-0406</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
@@ -34901,7 +34901,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>2011-12-406</t>
+          <t>2011-12-0406</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -34943,7 +34943,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>2011-12-406</t>
+          <t>2011-12-0406</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
@@ -34985,7 +34985,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>2011-12-406</t>
+          <t>2011-12-0406</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
@@ -35027,7 +35027,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>2011-12-406</t>
+          <t>2011-12-0406</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
@@ -35069,7 +35069,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>2011-12-407</t>
+          <t>2011-12-0407</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
@@ -35111,7 +35111,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>2011-12-407</t>
+          <t>2011-12-0407</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
@@ -35153,7 +35153,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>2011-12-407</t>
+          <t>2011-12-0407</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
@@ -35195,7 +35195,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>2011-12-407</t>
+          <t>2011-12-0407</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
@@ -35237,7 +35237,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>2011-12-407</t>
+          <t>2011-12-0407</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
@@ -35279,7 +35279,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>2011-12-407</t>
+          <t>2011-12-0407</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -35321,7 +35321,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>2011-12-407</t>
+          <t>2011-12-0407</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -35363,7 +35363,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>2011-12-407</t>
+          <t>2011-12-0407</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
@@ -35405,7 +35405,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>2011-12-407</t>
+          <t>2011-12-0407</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
@@ -35447,7 +35447,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>2011-12-408</t>
+          <t>2011-12-0408</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
@@ -35489,7 +35489,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>2011-12-408</t>
+          <t>2011-12-0408</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -35531,7 +35531,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>2011-12-408</t>
+          <t>2011-12-0408</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
@@ -35573,7 +35573,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>2011-12-408</t>
+          <t>2011-12-0408</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -35615,7 +35615,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>2011-12-408</t>
+          <t>2011-12-0408</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
@@ -35657,7 +35657,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>2011-12-408</t>
+          <t>2011-12-0408</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
@@ -35699,7 +35699,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>2011-12-408</t>
+          <t>2011-12-0408</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
@@ -35741,7 +35741,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>2011-12-409</t>
+          <t>2011-12-0409</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -35783,7 +35783,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>2011-12-409</t>
+          <t>2011-12-0409</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -35825,7 +35825,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>2011-12-409</t>
+          <t>2011-12-0409</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
@@ -35867,7 +35867,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>2011-12-409</t>
+          <t>2011-12-0409</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -35909,7 +35909,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>2011-12-409</t>
+          <t>2011-12-0409</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -35951,7 +35951,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>2011-12-409</t>
+          <t>2011-12-0409</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -35993,7 +35993,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>2011-12-409</t>
+          <t>2011-12-0409</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
@@ -36035,7 +36035,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>2011-12-409</t>
+          <t>2011-12-0409</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -36077,7 +36077,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>2011-12-409</t>
+          <t>2011-12-0409</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
@@ -36119,7 +36119,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>2011-12-409</t>
+          <t>2011-12-0409</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
@@ -36161,7 +36161,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>2011-12-410</t>
+          <t>2011-12-0410</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
@@ -36203,7 +36203,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>2011-12-410</t>
+          <t>2011-12-0410</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -36245,7 +36245,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>2011-12-410</t>
+          <t>2011-12-0410</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -36287,7 +36287,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>2011-12-410</t>
+          <t>2011-12-0410</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -36329,7 +36329,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>2011-12-410</t>
+          <t>2011-12-0410</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
@@ -36371,7 +36371,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>2011-12-410</t>
+          <t>2011-12-0410</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -36413,7 +36413,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>2011-12-411</t>
+          <t>2011-12-0411</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
@@ -36455,7 +36455,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>2011-12-411</t>
+          <t>2011-12-0411</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
@@ -36497,7 +36497,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>2011-12-411</t>
+          <t>2011-12-0411</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
@@ -36539,7 +36539,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>2011-12-411</t>
+          <t>2011-12-0411</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
@@ -36581,7 +36581,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>2011-12-411</t>
+          <t>2011-12-0411</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
@@ -36623,7 +36623,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>2011-12-411</t>
+          <t>2011-12-0411</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
@@ -36665,7 +36665,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>2011-12-411</t>
+          <t>2011-12-0411</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
@@ -36707,7 +36707,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>2011-12-411</t>
+          <t>2011-12-0411</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
@@ -36749,7 +36749,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>2011-12-411</t>
+          <t>2011-12-0411</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
@@ -36791,7 +36791,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>2011-12-411</t>
+          <t>2011-12-0411</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
@@ -36833,7 +36833,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>2011-12-411</t>
+          <t>2011-12-0411</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
@@ -36875,7 +36875,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>2011-12-412</t>
+          <t>2011-12-0412</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
@@ -36917,7 +36917,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>2011-12-412</t>
+          <t>2011-12-0412</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
@@ -36959,7 +36959,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>2011-12-412</t>
+          <t>2011-12-0412</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
@@ -37001,7 +37001,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>2011-12-412</t>
+          <t>2011-12-0412</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
@@ -37043,7 +37043,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>2011-12-412</t>
+          <t>2011-12-0412</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
@@ -37085,7 +37085,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>2011-12-413</t>
+          <t>2011-12-0413</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -37127,7 +37127,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>2011-12-413</t>
+          <t>2011-12-0413</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
@@ -37169,7 +37169,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>2011-12-413</t>
+          <t>2011-12-0413</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
@@ -37211,7 +37211,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>2011-12-413</t>
+          <t>2011-12-0413</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
@@ -37253,7 +37253,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>2011-12-413</t>
+          <t>2011-12-0413</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
@@ -37295,7 +37295,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>2011-12-413</t>
+          <t>2011-12-0413</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
@@ -37337,7 +37337,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>2011-12-413</t>
+          <t>2011-12-0413</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
@@ -37379,7 +37379,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>2011-12-413</t>
+          <t>2011-12-0413</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
@@ -37421,7 +37421,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>2011-12-413</t>
+          <t>2011-12-0413</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
@@ -37463,7 +37463,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>2011-12-413</t>
+          <t>2011-12-0413</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
@@ -37505,7 +37505,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>2011-12-413</t>
+          <t>2011-12-0413</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
@@ -37547,7 +37547,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>2011-12-413</t>
+          <t>2011-12-0413</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
@@ -37589,7 +37589,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>2011-12-414</t>
+          <t>2011-12-0414</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
@@ -37631,7 +37631,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>2011-12-414</t>
+          <t>2011-12-0414</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
@@ -37673,7 +37673,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>2011-12-414</t>
+          <t>2011-12-0414</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
@@ -37715,7 +37715,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>2011-12-414</t>
+          <t>2011-12-0414</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
@@ -37757,7 +37757,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>2011-12-414</t>
+          <t>2011-12-0414</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
@@ -37799,7 +37799,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>2011-12-414</t>
+          <t>2011-12-0414</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
@@ -37841,7 +37841,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>2011-12-414</t>
+          <t>2011-12-0414</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
@@ -37883,7 +37883,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>2011-12-415</t>
+          <t>2011-12-0415</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
@@ -37925,7 +37925,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>2011-12-415</t>
+          <t>2011-12-0415</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
@@ -37967,7 +37967,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>2011-12-415</t>
+          <t>2011-12-0415</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
@@ -38009,7 +38009,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>2011-12-415</t>
+          <t>2011-12-0415</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
@@ -38051,7 +38051,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>2011-12-415</t>
+          <t>2011-12-0415</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
@@ -38093,7 +38093,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>2011-12-415</t>
+          <t>2011-12-0415</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
@@ -38135,7 +38135,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>2011-12-415</t>
+          <t>2011-12-0415</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
@@ -38177,7 +38177,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>2011-12-415</t>
+          <t>2011-12-0415</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
@@ -38219,7 +38219,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>2011-12-415</t>
+          <t>2011-12-0415</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
@@ -38261,7 +38261,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>2011-12-416</t>
+          <t>2011-12-0416</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
@@ -38303,7 +38303,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>2011-12-416</t>
+          <t>2011-12-0416</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
@@ -38345,7 +38345,7 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>2011-12-416</t>
+          <t>2011-12-0416</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
@@ -38387,7 +38387,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>2011-12-416</t>
+          <t>2011-12-0416</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
@@ -38429,7 +38429,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>2011-12-416</t>
+          <t>2011-12-0416</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
@@ -38471,7 +38471,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>2011-12-416</t>
+          <t>2011-12-0416</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
@@ -38513,7 +38513,7 @@
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>2011-12-416</t>
+          <t>2011-12-0416</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
@@ -38555,7 +38555,7 @@
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>2011-12-416</t>
+          <t>2011-12-0416</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
@@ -38597,7 +38597,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>2011-12-416</t>
+          <t>2011-12-0416</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
@@ -38639,7 +38639,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>2011-12-416</t>
+          <t>2011-12-0416</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
@@ -38681,7 +38681,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>2011-12-416</t>
+          <t>2011-12-0416</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
@@ -38723,7 +38723,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>2011-12-417</t>
+          <t>2011-12-0417</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
@@ -38765,7 +38765,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>2011-12-417</t>
+          <t>2011-12-0417</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
@@ -38807,7 +38807,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>2011-12-417</t>
+          <t>2011-12-0417</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
@@ -38849,7 +38849,7 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>2011-12-417</t>
+          <t>2011-12-0417</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
@@ -38891,7 +38891,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>2011-12-417</t>
+          <t>2011-12-0417</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
@@ -38933,7 +38933,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>2011-12-418</t>
+          <t>2011-12-0418</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
@@ -38975,7 +38975,7 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>2011-12-418</t>
+          <t>2011-12-0418</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
@@ -39017,7 +39017,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>2011-12-418</t>
+          <t>2011-12-0418</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
@@ -39059,7 +39059,7 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>2011-12-418</t>
+          <t>2011-12-0418</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
@@ -39101,7 +39101,7 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>2011-12-418</t>
+          <t>2011-12-0418</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
@@ -39143,7 +39143,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>2011-12-418</t>
+          <t>2011-12-0418</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
@@ -39185,7 +39185,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>2011-12-418</t>
+          <t>2011-12-0418</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
@@ -39227,7 +39227,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>2011-12-418</t>
+          <t>2011-12-0418</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
@@ -39269,7 +39269,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>2011-12-418</t>
+          <t>2011-12-0418</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
@@ -39311,7 +39311,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>2011-12-418</t>
+          <t>2011-12-0418</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
@@ -39353,7 +39353,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>2011-12-418</t>
+          <t>2011-12-0418</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
@@ -39395,7 +39395,7 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>2011-12-418</t>
+          <t>2011-12-0418</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
@@ -39437,7 +39437,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>2011-12-418</t>
+          <t>2011-12-0418</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
@@ -39479,7 +39479,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>2011-12-418</t>
+          <t>2011-12-0418</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
@@ -39521,7 +39521,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>2011-12-419</t>
+          <t>2011-12-0419</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
@@ -39563,7 +39563,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>2011-12-419</t>
+          <t>2011-12-0419</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
@@ -39605,7 +39605,7 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>2011-12-419</t>
+          <t>2011-12-0419</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
@@ -39647,7 +39647,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>2011-12-419</t>
+          <t>2011-12-0419</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
@@ -39689,7 +39689,7 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>2011-12-419</t>
+          <t>2011-12-0419</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
@@ -39731,7 +39731,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>2011-12-420</t>
+          <t>2011-12-0420</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
@@ -39773,7 +39773,7 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>2011-12-420</t>
+          <t>2011-12-0420</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
@@ -39815,7 +39815,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>2011-12-420</t>
+          <t>2011-12-0420</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
@@ -39857,7 +39857,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>2011-12-420</t>
+          <t>2011-12-0420</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
@@ -39899,7 +39899,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>2011-12-420</t>
+          <t>2011-12-0420</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
@@ -39941,7 +39941,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>2011-12-420</t>
+          <t>2011-12-0420</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
@@ -39983,7 +39983,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>2011-12-421</t>
+          <t>2011-12-0421</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
@@ -40025,7 +40025,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>2011-12-421</t>
+          <t>2011-12-0421</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
@@ -40067,7 +40067,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>2011-12-421</t>
+          <t>2011-12-0421</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
@@ -40109,7 +40109,7 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>2011-12-421</t>
+          <t>2011-12-0421</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
@@ -40151,7 +40151,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>2011-12-421</t>
+          <t>2011-12-0421</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
@@ -40193,7 +40193,7 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>2011-12-421</t>
+          <t>2011-12-0421</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
@@ -40235,7 +40235,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>2011-12-421</t>
+          <t>2011-12-0421</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
@@ -40277,7 +40277,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>2011-12-421</t>
+          <t>2011-12-0421</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
@@ -40319,7 +40319,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>2011-12-422</t>
+          <t>2011-12-0422</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
@@ -40361,7 +40361,7 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>2011-12-422</t>
+          <t>2011-12-0422</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
@@ -40403,7 +40403,7 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>2011-12-422</t>
+          <t>2011-12-0422</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
@@ -40445,7 +40445,7 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>2011-12-422</t>
+          <t>2011-12-0422</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
@@ -40487,7 +40487,7 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>2011-12-422</t>
+          <t>2011-12-0422</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
@@ -40529,7 +40529,7 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>2011-12-422</t>
+          <t>2011-12-0422</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
@@ -40571,7 +40571,7 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>2011-12-422</t>
+          <t>2011-12-0422</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
@@ -40613,7 +40613,7 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>2011-12-422</t>
+          <t>2011-12-0422</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
@@ -40655,7 +40655,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>2011-12-422</t>
+          <t>2011-12-0422</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
@@ -40697,7 +40697,7 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>2011-12-423</t>
+          <t>2011-12-0423</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
@@ -40739,7 +40739,7 @@
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>2011-12-423</t>
+          <t>2011-12-0423</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
@@ -40781,7 +40781,7 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>2011-12-423</t>
+          <t>2011-12-0423</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
@@ -40823,7 +40823,7 @@
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>2011-12-423</t>
+          <t>2011-12-0423</t>
         </is>
       </c>
       <c r="C964" t="inlineStr">
@@ -40865,7 +40865,7 @@
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>2011-12-423</t>
+          <t>2011-12-0423</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
@@ -40907,7 +40907,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>2011-12-423</t>
+          <t>2011-12-0423</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
@@ -40949,7 +40949,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>2011-12-424</t>
+          <t>2011-12-0424</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
@@ -40991,7 +40991,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>2011-12-424</t>
+          <t>2011-12-0424</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
@@ -41033,7 +41033,7 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>2011-12-424</t>
+          <t>2011-12-0424</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
@@ -41075,7 +41075,7 @@
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>2011-12-424</t>
+          <t>2011-12-0424</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
@@ -41117,7 +41117,7 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>2011-12-424</t>
+          <t>2011-12-0424</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
@@ -41159,7 +41159,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>2011-12-425</t>
+          <t>2011-12-0425</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
@@ -41201,7 +41201,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>2011-12-425</t>
+          <t>2011-12-0425</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
@@ -41243,7 +41243,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>2011-12-425</t>
+          <t>2011-12-0425</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
@@ -41285,7 +41285,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>2011-12-425</t>
+          <t>2011-12-0425</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
@@ -41327,7 +41327,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>2011-12-425</t>
+          <t>2011-12-0425</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
@@ -41369,7 +41369,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>2011-12-425</t>
+          <t>2011-12-0425</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
@@ -41411,7 +41411,7 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>2011-12-425</t>
+          <t>2011-12-0425</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
@@ -41453,7 +41453,7 @@
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>2011-12-426</t>
+          <t>2011-12-0426</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
@@ -41495,7 +41495,7 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>2011-12-426</t>
+          <t>2011-12-0426</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
@@ -41537,7 +41537,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>2011-12-426</t>
+          <t>2011-12-0426</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
@@ -41579,7 +41579,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>2011-12-426</t>
+          <t>2011-12-0426</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
@@ -41621,7 +41621,7 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>2011-12-426</t>
+          <t>2011-12-0426</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
@@ -41663,7 +41663,7 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>2011-12-426</t>
+          <t>2011-12-0426</t>
         </is>
       </c>
       <c r="C984" t="inlineStr">
@@ -41705,7 +41705,7 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>2011-12-426</t>
+          <t>2011-12-0426</t>
         </is>
       </c>
       <c r="C985" t="inlineStr">
@@ -41747,7 +41747,7 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>2011-12-426</t>
+          <t>2011-12-0426</t>
         </is>
       </c>
       <c r="C986" t="inlineStr">
@@ -41789,7 +41789,7 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>2011-12-426</t>
+          <t>2011-12-0426</t>
         </is>
       </c>
       <c r="C987" t="inlineStr">
@@ -41831,7 +41831,7 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>2011-12-426</t>
+          <t>2011-12-0426</t>
         </is>
       </c>
       <c r="C988" t="inlineStr">
@@ -41873,7 +41873,7 @@
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>2011-12-426</t>
+          <t>2011-12-0426</t>
         </is>
       </c>
       <c r="C989" t="inlineStr">
@@ -41915,7 +41915,7 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>2011-12-426</t>
+          <t>2011-12-0426</t>
         </is>
       </c>
       <c r="C990" t="inlineStr">
@@ -41957,7 +41957,7 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>2011-12-426</t>
+          <t>2011-12-0426</t>
         </is>
       </c>
       <c r="C991" t="inlineStr">
@@ -41999,7 +41999,7 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>2011-12-428</t>
+          <t>2011-12-0428</t>
         </is>
       </c>
       <c r="C992" t="inlineStr">
@@ -42041,7 +42041,7 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>2011-12-428</t>
+          <t>2011-12-0428</t>
         </is>
       </c>
       <c r="C993" t="inlineStr">
@@ -42083,7 +42083,7 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>2011-12-428</t>
+          <t>2011-12-0428</t>
         </is>
       </c>
       <c r="C994" t="inlineStr">
@@ -42125,7 +42125,7 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>2011-12-428</t>
+          <t>2011-12-0428</t>
         </is>
       </c>
       <c r="C995" t="inlineStr">
@@ -42167,7 +42167,7 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>2011-12-429</t>
+          <t>2011-12-0429</t>
         </is>
       </c>
       <c r="C996" t="inlineStr">
@@ -42209,7 +42209,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>2011-12-429</t>
+          <t>2011-12-0429</t>
         </is>
       </c>
       <c r="C997" t="inlineStr">
@@ -42251,7 +42251,7 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>2011-12-429</t>
+          <t>2011-12-0429</t>
         </is>
       </c>
       <c r="C998" t="inlineStr">
@@ -42293,7 +42293,7 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>2011-12-429</t>
+          <t>2011-12-0429</t>
         </is>
       </c>
       <c r="C999" t="inlineStr">
@@ -42335,7 +42335,7 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>2011-12-430</t>
+          <t>2011-12-0430</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
@@ -42377,7 +42377,7 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>2011-12-430</t>
+          <t>2011-12-0430</t>
         </is>
       </c>
       <c r="C1001" t="inlineStr">
@@ -42419,7 +42419,7 @@
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>2011-12-430</t>
+          <t>2011-12-0430</t>
         </is>
       </c>
       <c r="C1002" t="inlineStr">
@@ -42461,7 +42461,7 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>2011-12-501</t>
+          <t>2011-12-0501</t>
         </is>
       </c>
       <c r="C1003" t="inlineStr">
@@ -42503,7 +42503,7 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>2011-12-501</t>
+          <t>2011-12-0501</t>
         </is>
       </c>
       <c r="C1004" t="inlineStr">
@@ -42545,7 +42545,7 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>2011-12-501</t>
+          <t>2011-12-0501</t>
         </is>
       </c>
       <c r="C1005" t="inlineStr">
@@ -42587,7 +42587,7 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>2011-12-502</t>
+          <t>2011-12-0502</t>
         </is>
       </c>
       <c r="C1006" t="inlineStr">
@@ -42629,7 +42629,7 @@
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>2011-12-502</t>
+          <t>2011-12-0502</t>
         </is>
       </c>
       <c r="C1007" t="inlineStr">
@@ -42671,7 +42671,7 @@
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>2011-12-502</t>
+          <t>2011-12-0502</t>
         </is>
       </c>
       <c r="C1008" t="inlineStr">
@@ -42713,7 +42713,7 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>2011-12-503</t>
+          <t>2011-12-0503</t>
         </is>
       </c>
       <c r="C1009" t="inlineStr">
@@ -42755,7 +42755,7 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>2011-12-503</t>
+          <t>2011-12-0503</t>
         </is>
       </c>
       <c r="C1010" t="inlineStr">
@@ -42797,7 +42797,7 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>2011-12-504</t>
+          <t>2011-12-0504</t>
         </is>
       </c>
       <c r="C1011" t="inlineStr">
@@ -42839,7 +42839,7 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>2011-12-504</t>
+          <t>2011-12-0504</t>
         </is>
       </c>
       <c r="C1012" t="inlineStr">
@@ -42881,7 +42881,7 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>2011-12-504</t>
+          <t>2011-12-0504</t>
         </is>
       </c>
       <c r="C1013" t="inlineStr">
@@ -42923,7 +42923,7 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>2011-12-505</t>
+          <t>2011-12-0505</t>
         </is>
       </c>
       <c r="C1014" t="inlineStr">
@@ -42965,7 +42965,7 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>2011-12-505</t>
+          <t>2011-12-0505</t>
         </is>
       </c>
       <c r="C1015" t="inlineStr">
@@ -43007,7 +43007,7 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>2011-12-505</t>
+          <t>2011-12-0505</t>
         </is>
       </c>
       <c r="C1016" t="inlineStr">
@@ -43049,7 +43049,7 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>2011-12-505</t>
+          <t>2011-12-0505</t>
         </is>
       </c>
       <c r="C1017" t="inlineStr">
@@ -43091,7 +43091,7 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>2011-12-506</t>
+          <t>2011-12-0506</t>
         </is>
       </c>
       <c r="C1018" t="inlineStr">
@@ -43133,7 +43133,7 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>2011-12-506</t>
+          <t>2011-12-0506</t>
         </is>
       </c>
       <c r="C1019" t="inlineStr">
@@ -43175,7 +43175,7 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>2011-12-506</t>
+          <t>2011-12-0506</t>
         </is>
       </c>
       <c r="C1020" t="inlineStr">
@@ -43217,7 +43217,7 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>2011-12-506</t>
+          <t>2011-12-0506</t>
         </is>
       </c>
       <c r="C1021" t="inlineStr">
@@ -43259,7 +43259,7 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>2011-12-507</t>
+          <t>2011-12-0507</t>
         </is>
       </c>
       <c r="C1022" t="inlineStr">
@@ -43301,7 +43301,7 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>2011-12-507</t>
+          <t>2011-12-0507</t>
         </is>
       </c>
       <c r="C1023" t="inlineStr">
@@ -43343,7 +43343,7 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>2011-12-508</t>
+          <t>2011-12-0508</t>
         </is>
       </c>
       <c r="C1024" t="inlineStr">
@@ -43385,7 +43385,7 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>2011-12-508</t>
+          <t>2011-12-0508</t>
         </is>
       </c>
       <c r="C1025" t="inlineStr">
@@ -43427,7 +43427,7 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>2011-12-508</t>
+          <t>2011-12-0508</t>
         </is>
       </c>
       <c r="C1026" t="inlineStr">
@@ -43469,7 +43469,7 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>2011-12-508</t>
+          <t>2011-12-0508</t>
         </is>
       </c>
       <c r="C1027" t="inlineStr">
@@ -43511,7 +43511,7 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>2011-12-509</t>
+          <t>2011-12-0509</t>
         </is>
       </c>
       <c r="C1028" t="inlineStr">
@@ -43553,7 +43553,7 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>2011-12-509</t>
+          <t>2011-12-0509</t>
         </is>
       </c>
       <c r="C1029" t="inlineStr">
@@ -43595,7 +43595,7 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>2011-12-510</t>
+          <t>2011-12-0510</t>
         </is>
       </c>
       <c r="C1030" t="inlineStr">
@@ -43637,7 +43637,7 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>2011-12-510</t>
+          <t>2011-12-0510</t>
         </is>
       </c>
       <c r="C1031" t="inlineStr">
@@ -43679,7 +43679,7 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>2011-12-510</t>
+          <t>2011-12-0510</t>
         </is>
       </c>
       <c r="C1032" t="inlineStr">
@@ -43721,7 +43721,7 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>2011-12-511</t>
+          <t>2011-12-0511</t>
         </is>
       </c>
       <c r="C1033" t="inlineStr">
@@ -43763,7 +43763,7 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>2011-12-512</t>
+          <t>2011-12-0512</t>
         </is>
       </c>
       <c r="C1034" t="inlineStr">
@@ -43805,7 +43805,7 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>2011-12-512</t>
+          <t>2011-12-0512</t>
         </is>
       </c>
       <c r="C1035" t="inlineStr">
@@ -43847,7 +43847,7 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>2011-12-513</t>
+          <t>2011-12-0513</t>
         </is>
       </c>
       <c r="C1036" t="inlineStr">
@@ -43889,7 +43889,7 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>2011-12-513</t>
+          <t>2011-12-0513</t>
         </is>
       </c>
       <c r="C1037" t="inlineStr">
@@ -43931,7 +43931,7 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>2011-12-514</t>
+          <t>2011-12-0514</t>
         </is>
       </c>
       <c r="C1038" t="inlineStr">
@@ -43973,7 +43973,7 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>2011-12-514</t>
+          <t>2011-12-0514</t>
         </is>
       </c>
       <c r="C1039" t="inlineStr">
@@ -44015,7 +44015,7 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>2011-12-515</t>
+          <t>2011-12-0515</t>
         </is>
       </c>
       <c r="C1040" t="inlineStr">
@@ -44057,7 +44057,7 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>2011-12-515</t>
+          <t>2011-12-0515</t>
         </is>
       </c>
       <c r="C1041" t="inlineStr">
@@ -44099,7 +44099,7 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>2011-12-516</t>
+          <t>2011-12-0516</t>
         </is>
       </c>
       <c r="C1042" t="inlineStr">
@@ -44141,7 +44141,7 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>2011-12-516</t>
+          <t>2011-12-0516</t>
         </is>
       </c>
       <c r="C1043" t="inlineStr">
@@ -44183,7 +44183,7 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>2011-12-517</t>
+          <t>2011-12-0517</t>
         </is>
       </c>
       <c r="C1044" t="inlineStr">
@@ -44225,7 +44225,7 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>2011-12-517</t>
+          <t>2011-12-0517</t>
         </is>
       </c>
       <c r="C1045" t="inlineStr">
@@ -44267,7 +44267,7 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>2011-12-518</t>
+          <t>2011-12-0518</t>
         </is>
       </c>
       <c r="C1046" t="inlineStr">
@@ -44309,7 +44309,7 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>2011-12-518</t>
+          <t>2011-12-0518</t>
         </is>
       </c>
       <c r="C1047" t="inlineStr">
@@ -44351,7 +44351,7 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>2011-12-519</t>
+          <t>2011-12-0519</t>
         </is>
       </c>
       <c r="C1048" t="inlineStr">
@@ -44393,7 +44393,7 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>2011-12-519</t>
+          <t>2011-12-0519</t>
         </is>
       </c>
       <c r="C1049" t="inlineStr">
@@ -44435,7 +44435,7 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>2011-12-520</t>
+          <t>2011-12-0520</t>
         </is>
       </c>
       <c r="C1050" t="inlineStr">
@@ -44477,7 +44477,7 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>2011-12-520</t>
+          <t>2011-12-0520</t>
         </is>
       </c>
       <c r="C1051" t="inlineStr">
@@ -44519,7 +44519,7 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>2011-12-521</t>
+          <t>2011-12-0521</t>
         </is>
       </c>
       <c r="C1052" t="inlineStr">
@@ -44561,7 +44561,7 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>2011-12-521</t>
+          <t>2011-12-0521</t>
         </is>
       </c>
       <c r="C1053" t="inlineStr">
@@ -44603,7 +44603,7 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>2011-12-522</t>
+          <t>2011-12-0522</t>
         </is>
       </c>
       <c r="C1054" t="inlineStr">
@@ -44645,7 +44645,7 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>2011-12-523</t>
+          <t>2011-12-0523</t>
         </is>
       </c>
       <c r="C1055" t="inlineStr">
@@ -44687,7 +44687,7 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>2011-12-524</t>
+          <t>2011-12-0524</t>
         </is>
       </c>
       <c r="C1056" t="inlineStr">
@@ -44729,7 +44729,7 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>2011-12-526</t>
+          <t>2011-12-0526</t>
         </is>
       </c>
       <c r="C1057" t="inlineStr">
@@ -44771,7 +44771,7 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>2011-12-527</t>
+          <t>2011-12-0527</t>
         </is>
       </c>
       <c r="C1058" t="inlineStr">
@@ -44813,7 +44813,7 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>2011-12-528</t>
+          <t>2011-12-0528</t>
         </is>
       </c>
       <c r="C1059" t="inlineStr">
@@ -44855,7 +44855,7 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>2011-12-529</t>
+          <t>2011-12-0529</t>
         </is>
       </c>
       <c r="C1060" t="inlineStr">
@@ -44897,7 +44897,7 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>2011-12-530</t>
+          <t>2011-12-0530</t>
         </is>
       </c>
       <c r="C1061" t="inlineStr">
@@ -44939,7 +44939,7 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>2011-12-531</t>
+          <t>2011-12-0531</t>
         </is>
       </c>
       <c r="C1062" t="inlineStr">
@@ -44981,7 +44981,7 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>2011-12-601</t>
+          <t>2011-12-0601</t>
         </is>
       </c>
       <c r="C1063" t="inlineStr">
@@ -45023,7 +45023,7 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>2011-12-602</t>
+          <t>2011-12-0602</t>
         </is>
       </c>
       <c r="C1064" t="inlineStr">
@@ -45065,7 +45065,7 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>2011-12-603</t>
+          <t>2011-12-0603</t>
         </is>
       </c>
       <c r="C1065" t="inlineStr">
@@ -45107,7 +45107,7 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>2011-12-604</t>
+          <t>2011-12-0604</t>
         </is>
       </c>
       <c r="C1066" t="inlineStr">
@@ -45149,7 +45149,7 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>2011-12-605</t>
+          <t>2011-12-0605</t>
         </is>
       </c>
       <c r="C1067" t="inlineStr">
@@ -45191,7 +45191,7 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>2011-12-606</t>
+          <t>2011-12-0606</t>
         </is>
       </c>
       <c r="C1068" t="inlineStr">
@@ -45233,7 +45233,7 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>2011-12-607</t>
+          <t>2011-12-0607</t>
         </is>
       </c>
       <c r="C1069" t="inlineStr">
@@ -45275,7 +45275,7 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>2011-12-609</t>
+          <t>2011-12-0609</t>
         </is>
       </c>
       <c r="C1070" t="inlineStr">
@@ -45317,7 +45317,7 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>2011-12-612</t>
+          <t>2011-12-0612</t>
         </is>
       </c>
       <c r="C1071" t="inlineStr">
@@ -45359,7 +45359,7 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>2011-12-614</t>
+          <t>2011-12-0614</t>
         </is>
       </c>
       <c r="C1072" t="inlineStr">
@@ -45401,7 +45401,7 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>2011-12-617</t>
+          <t>2011-12-0617</t>
         </is>
       </c>
       <c r="C1073" t="inlineStr">
@@ -45443,7 +45443,7 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>2011-12-619</t>
+          <t>2011-12-0619</t>
         </is>
       </c>
       <c r="C1074" t="inlineStr">
@@ -45485,7 +45485,7 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>2011-12-621</t>
+          <t>2011-12-0621</t>
         </is>
       </c>
       <c r="C1075" t="inlineStr">

--- a/Odds-Data-Clean/2011-12.xlsx
+++ b/Odds-Data-Clean/2011-12.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -548,7 +548,11 @@
           <t>2011-12-1225</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Orlando Magic</t>
@@ -843,7 +847,11 @@
           <t>Minnesota Timberwolves</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E12" t="n">
         <v>209</v>
       </c>
@@ -1553,7 +1561,11 @@
           <t>Memphis Grizzlies</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E29" t="n">
         <v>195</v>
       </c>
@@ -1838,7 +1850,11 @@
           <t>2011-12-1229</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>Dallas Mavericks</t>
@@ -2632,7 +2648,11 @@
           <t>2011-12-1231</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
           <t>Phoenix Suns</t>
@@ -3431,7 +3451,11 @@
           <t>Dallas Mavericks</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E74" t="n">
         <v>199.5</v>
       </c>
@@ -3590,7 +3614,11 @@
           <t>2011-12-0103</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
           <t>Portland Trail Blazers</t>
@@ -4720,7 +4748,11 @@
           <t>2011-12-0106</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr"/>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
           <t>Houston Rockets</t>
@@ -5183,7 +5215,11 @@
           <t>Houston Rockets</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E116" t="n">
         <v>202.5</v>
       </c>
@@ -5468,7 +5504,11 @@
           <t>2011-12-0108</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr"/>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D123" t="inlineStr">
         <is>
           <t>San Antonio Spurs</t>
@@ -6099,7 +6139,11 @@
           <t>Memphis Grizzlies</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E138" t="n">
         <v>193</v>
       </c>
@@ -6515,7 +6559,11 @@
           <t>New Orleans Pelicans</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E148" t="n">
         <v>187</v>
       </c>
@@ -7682,7 +7730,11 @@
           <t>2011-12-0114</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr"/>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D176" t="inlineStr">
         <is>
           <t>New York Knicks</t>
@@ -8439,7 +8491,11 @@
           <t>Boston Celtics</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr"/>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E194" t="n">
         <v>188</v>
       </c>
@@ -8855,7 +8911,11 @@
           <t>Washington Wizards</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E204" t="n">
         <v>197.5</v>
       </c>
@@ -10153,7 +10213,11 @@
           <t>New Jersey Nets</t>
         </is>
       </c>
-      <c r="D235" t="inlineStr"/>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E235" t="n">
         <v>202</v>
       </c>
@@ -10564,7 +10628,11 @@
           <t>2011-12-0123</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr"/>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D245" t="inlineStr">
         <is>
           <t>Detroit Pistons</t>
@@ -11316,7 +11384,11 @@
           <t>2011-12-0125</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr"/>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D263" t="inlineStr">
         <is>
           <t>New Orleans Pelicans</t>
@@ -12241,7 +12313,11 @@
           <t>Golden State Warriors</t>
         </is>
       </c>
-      <c r="D285" t="inlineStr"/>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E285" t="n">
         <v>198</v>
       </c>
@@ -13203,7 +13279,11 @@
           <t>Los Angeles Clippers</t>
         </is>
       </c>
-      <c r="D308" t="inlineStr"/>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E308" t="n">
         <v>196</v>
       </c>
@@ -13829,7 +13909,11 @@
           <t>Dallas Mavericks</t>
         </is>
       </c>
-      <c r="D323" t="inlineStr"/>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E323" t="n">
         <v>196</v>
       </c>
@@ -14450,7 +14534,11 @@
           <t>2011-12-0203</t>
         </is>
       </c>
-      <c r="C338" t="inlineStr"/>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D338" t="inlineStr">
         <is>
           <t>Memphis Grizzlies</t>
@@ -14997,7 +15085,11 @@
           <t>San Antonio Spurs</t>
         </is>
       </c>
-      <c r="D351" t="inlineStr"/>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E351" t="n">
         <v>195</v>
       </c>
@@ -15665,7 +15757,11 @@
           <t>Portland Trail Blazers</t>
         </is>
       </c>
-      <c r="D367" t="inlineStr"/>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E367" t="n">
         <v>198</v>
       </c>
@@ -15913,7 +16009,11 @@
           <t>Golden State Warriors</t>
         </is>
       </c>
-      <c r="D373" t="inlineStr"/>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E373" t="n">
         <v>205.5</v>
       </c>
@@ -16539,7 +16639,11 @@
           <t>Sacramento Kings</t>
         </is>
       </c>
-      <c r="D388" t="inlineStr"/>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E388" t="n">
         <v>202</v>
       </c>
@@ -17039,7 +17143,11 @@
           <t>Utah Jazz</t>
         </is>
       </c>
-      <c r="D400" t="inlineStr"/>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E400" t="n">
         <v>200.5</v>
       </c>
@@ -18038,7 +18146,11 @@
           <t>2011-12-0214</t>
         </is>
       </c>
-      <c r="C424" t="inlineStr"/>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D424" t="inlineStr">
         <is>
           <t>Utah Jazz</t>
@@ -18585,7 +18697,11 @@
           <t>Houston Rockets</t>
         </is>
       </c>
-      <c r="D437" t="inlineStr"/>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E437" t="n">
         <v>203.5</v>
       </c>
@@ -19164,7 +19280,11 @@
           <t>2011-12-0217</t>
         </is>
       </c>
-      <c r="C451" t="inlineStr"/>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D451" t="inlineStr">
         <is>
           <t>Golden State Warriors</t>
@@ -19916,7 +20036,11 @@
           <t>2011-12-0219</t>
         </is>
       </c>
-      <c r="C469" t="inlineStr"/>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D469" t="inlineStr">
         <is>
           <t>Denver Nuggets</t>
@@ -20164,7 +20288,11 @@
           <t>2011-12-0220</t>
         </is>
       </c>
-      <c r="C475" t="inlineStr"/>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D475" t="inlineStr">
         <is>
           <t>New Orleans Pelicans</t>
@@ -20706,7 +20834,11 @@
           <t>2011-12-0222</t>
         </is>
       </c>
-      <c r="C488" t="inlineStr"/>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D488" t="inlineStr">
         <is>
           <t>Boston Celtics</t>
@@ -21332,7 +21464,11 @@
           <t>2011-12-0223</t>
         </is>
       </c>
-      <c r="C503" t="inlineStr"/>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D503" t="inlineStr">
         <is>
           <t>Los Angeles Lakers</t>
@@ -21795,7 +21931,11 @@
           <t>Philadelphia 76ers</t>
         </is>
       </c>
-      <c r="D514" t="inlineStr"/>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E514" t="n">
         <v>191</v>
       </c>
@@ -22253,7 +22393,11 @@
           <t>Orlando Magic</t>
         </is>
       </c>
-      <c r="D525" t="inlineStr"/>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E525" t="n">
         <v>192.5</v>
       </c>
@@ -22963,7 +23107,11 @@
           <t>Atlanta Hawks</t>
         </is>
       </c>
-      <c r="D542" t="inlineStr"/>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E542" t="n">
         <v>189.5</v>
       </c>
@@ -23752,7 +23900,11 @@
           <t>2011-12-0305</t>
         </is>
       </c>
-      <c r="C561" t="inlineStr"/>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D561" t="inlineStr">
         <is>
           <t>Dallas Mavericks</t>
@@ -24462,7 +24614,11 @@
           <t>2011-12-0307</t>
         </is>
       </c>
-      <c r="C578" t="inlineStr"/>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D578" t="inlineStr">
         <is>
           <t>Phoenix Suns</t>
@@ -24962,7 +25118,11 @@
           <t>2011-12-0309</t>
         </is>
       </c>
-      <c r="C590" t="inlineStr"/>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D590" t="inlineStr">
         <is>
           <t>Cleveland Cavaliers</t>
@@ -25420,7 +25580,11 @@
           <t>2011-12-0310</t>
         </is>
       </c>
-      <c r="C601" t="inlineStr"/>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D601" t="inlineStr">
         <is>
           <t>Charlotte Bobcats</t>
@@ -26340,7 +26504,11 @@
           <t>2011-12-0313</t>
         </is>
       </c>
-      <c r="C623" t="inlineStr"/>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D623" t="inlineStr">
         <is>
           <t>Houston Rockets</t>
@@ -27097,7 +27265,11 @@
           <t>Denver Nuggets</t>
         </is>
       </c>
-      <c r="D641" t="inlineStr"/>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E641" t="n">
         <v>211</v>
       </c>
@@ -27466,7 +27638,11 @@
           <t>2011-12-0316</t>
         </is>
       </c>
-      <c r="C650" t="inlineStr"/>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D650" t="inlineStr">
         <is>
           <t>San Antonio Spurs</t>
@@ -28260,7 +28436,11 @@
           <t>2011-12-0318</t>
         </is>
       </c>
-      <c r="C669" t="inlineStr"/>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D669" t="inlineStr">
         <is>
           <t>Portland Trail Blazers</t>
@@ -28765,7 +28945,11 @@
           <t>Utah Jazz</t>
         </is>
       </c>
-      <c r="D681" t="inlineStr"/>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E681" t="n">
         <v>204</v>
       </c>
@@ -29134,7 +29318,11 @@
           <t>2011-12-0321</t>
         </is>
       </c>
-      <c r="C690" t="inlineStr"/>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D690" t="inlineStr">
         <is>
           <t>Los Angeles Clippers</t>
@@ -29844,7 +30032,11 @@
           <t>2011-12-0323</t>
         </is>
       </c>
-      <c r="C707" t="inlineStr"/>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D707" t="inlineStr">
         <is>
           <t>Minnesota Timberwolves</t>
@@ -30596,7 +30788,11 @@
           <t>2011-12-0325</t>
         </is>
       </c>
-      <c r="C725" t="inlineStr"/>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D725" t="inlineStr">
         <is>
           <t>Miami Heat</t>
@@ -31311,7 +31507,11 @@
           <t>Portland Trail Blazers</t>
         </is>
       </c>
-      <c r="D742" t="inlineStr"/>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E742" t="n">
         <v>198.5</v>
       </c>
@@ -31937,7 +32137,11 @@
           <t>Los Angeles Lakers</t>
         </is>
       </c>
-      <c r="D757" t="inlineStr"/>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E757" t="n">
         <v>201</v>
       </c>
@@ -32810,7 +33014,11 @@
           <t>2011-12-0401</t>
         </is>
       </c>
-      <c r="C778" t="inlineStr"/>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D778" t="inlineStr">
         <is>
           <t>Chicago Bulls</t>
@@ -33226,7 +33434,11 @@
           <t>2011-12-0402</t>
         </is>
       </c>
-      <c r="C788" t="inlineStr"/>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D788" t="inlineStr">
         <is>
           <t>Memphis Grizzlies</t>
@@ -33899,7 +34111,11 @@
           <t>Miami Heat</t>
         </is>
       </c>
-      <c r="D804" t="inlineStr"/>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E804" t="n">
         <v>197</v>
       </c>
@@ -34399,7 +34615,11 @@
           <t>Indiana Pacers</t>
         </is>
       </c>
-      <c r="D816" t="inlineStr"/>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E816" t="n">
         <v>200</v>
       </c>
@@ -35398,7 +35618,11 @@
           <t>2011-12-0408</t>
         </is>
       </c>
-      <c r="C840" t="inlineStr"/>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D840" t="inlineStr">
         <is>
           <t>Toronto Raptors</t>
@@ -35735,7 +35959,11 @@
           <t>Milwaukee Bucks</t>
         </is>
       </c>
-      <c r="D848" t="inlineStr"/>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E848" t="n">
         <v>210</v>
       </c>
@@ -36482,7 +36710,11 @@
           <t>2011-12-0411</t>
         </is>
       </c>
-      <c r="C866" t="inlineStr"/>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D866" t="inlineStr">
         <is>
           <t>Los Angeles Clippers</t>
@@ -37150,7 +37382,11 @@
           <t>2011-12-0413</t>
         </is>
       </c>
-      <c r="C882" t="inlineStr"/>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D882" t="inlineStr">
         <is>
           <t>Sacramento Kings</t>
@@ -37529,7 +37765,11 @@
           <t>Minnesota Timberwolves</t>
         </is>
       </c>
-      <c r="D891" t="inlineStr"/>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E891" t="n">
         <v>204.5</v>
       </c>
@@ -38449,7 +38689,11 @@
           <t>Los Angeles Clippers</t>
         </is>
       </c>
-      <c r="D913" t="inlineStr"/>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E913" t="n">
         <v>198</v>
       </c>
@@ -39117,7 +39361,11 @@
           <t>Phoenix Suns</t>
         </is>
       </c>
-      <c r="D929" t="inlineStr"/>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E929" t="n">
         <v>207</v>
       </c>
@@ -39701,7 +39949,11 @@
           <t>Sacramento Kings</t>
         </is>
       </c>
-      <c r="D943" t="inlineStr"/>
+      <c r="D943" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E943" t="n">
         <v>213</v>
       </c>
@@ -40117,7 +40369,11 @@
           <t>Los Angeles Lakers</t>
         </is>
       </c>
-      <c r="D953" t="inlineStr"/>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E953" t="n">
         <v>200</v>
       </c>
@@ -40738,7 +40994,11 @@
           <t>2011-12-0424</t>
         </is>
       </c>
-      <c r="C968" t="inlineStr"/>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D968" t="inlineStr">
         <is>
           <t>Sacramento Kings</t>
@@ -41028,7 +41288,11 @@
           <t>2011-12-0425</t>
         </is>
       </c>
-      <c r="C975" t="inlineStr"/>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D975" t="inlineStr">
         <is>
           <t>Denver Nuggets</t>
@@ -41864,7 +42128,11 @@
           <t>2011-12-0428</t>
         </is>
       </c>
-      <c r="C995" t="inlineStr"/>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D995" t="inlineStr">
         <is>
           <t>Dallas Mavericks</t>
@@ -42154,7 +42422,11 @@
           <t>2011-12-0430</t>
         </is>
       </c>
-      <c r="C1002" t="inlineStr"/>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D1002" t="inlineStr">
         <is>
           <t>Dallas Mavericks</t>
@@ -42491,7 +42763,11 @@
           <t>Dallas Mavericks</t>
         </is>
       </c>
-      <c r="D1010" t="inlineStr"/>
+      <c r="D1010" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E1010" t="n">
         <v>196</v>
       </c>
@@ -42739,7 +43015,11 @@
           <t>Dallas Mavericks</t>
         </is>
       </c>
-      <c r="D1016" t="inlineStr"/>
+      <c r="D1016" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E1016" t="n">
         <v>192.5</v>
       </c>
@@ -43654,7 +43934,11 @@
           <t>2011-12-0514</t>
         </is>
       </c>
-      <c r="C1038" t="inlineStr"/>
+      <c r="C1038" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D1038" t="inlineStr">
         <is>
           <t>Los Angeles Lakers</t>
@@ -43860,7 +44144,11 @@
           <t>2011-12-0516</t>
         </is>
       </c>
-      <c r="C1043" t="inlineStr"/>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D1043" t="inlineStr">
         <is>
           <t>Los Angeles Lakers</t>
@@ -44029,7 +44317,11 @@
           <t>Los Angeles Lakers</t>
         </is>
       </c>
-      <c r="D1047" t="inlineStr"/>
+      <c r="D1047" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E1047" t="n">
         <v>194</v>
       </c>
@@ -44109,7 +44401,11 @@
           <t>Los Angeles Lakers</t>
         </is>
       </c>
-      <c r="D1049" t="inlineStr"/>
+      <c r="D1049" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E1049" t="n">
         <v>191</v>
       </c>
@@ -44268,7 +44564,11 @@
           <t>2011-12-0521</t>
         </is>
       </c>
-      <c r="C1053" t="inlineStr"/>
+      <c r="C1053" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D1053" t="inlineStr">
         <is>
           <t>Los Angeles Lakers</t>
@@ -44479,7 +44779,11 @@
           <t>San Antonio Spurs</t>
         </is>
       </c>
-      <c r="D1058" t="inlineStr"/>
+      <c r="D1058" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E1058" t="n">
         <v>201</v>
       </c>
@@ -44559,7 +44863,11 @@
           <t>San Antonio Spurs</t>
         </is>
       </c>
-      <c r="D1060" t="inlineStr"/>
+      <c r="D1060" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E1060" t="n">
         <v>202</v>
       </c>
@@ -44634,7 +44942,11 @@
           <t>2011-12-0531</t>
         </is>
       </c>
-      <c r="C1062" t="inlineStr"/>
+      <c r="C1062" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D1062" t="inlineStr">
         <is>
           <t>San Antonio Spurs</t>
@@ -44714,7 +45026,11 @@
           <t>2011-12-0602</t>
         </is>
       </c>
-      <c r="C1064" t="inlineStr"/>
+      <c r="C1064" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D1064" t="inlineStr">
         <is>
           <t>San Antonio Spurs</t>
@@ -44799,7 +45115,11 @@
           <t>San Antonio Spurs</t>
         </is>
       </c>
-      <c r="D1066" t="inlineStr"/>
+      <c r="D1066" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E1066" t="n">
         <v>203.5</v>
       </c>
@@ -44874,7 +45194,11 @@
           <t>2011-12-0606</t>
         </is>
       </c>
-      <c r="C1068" t="inlineStr"/>
+      <c r="C1068" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D1068" t="inlineStr">
         <is>
           <t>San Antonio Spurs</t>
@@ -44996,7 +45320,11 @@
           <t>2011-12-0612</t>
         </is>
       </c>
-      <c r="C1071" t="inlineStr"/>
+      <c r="C1071" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D1071" t="inlineStr">
         <is>
           <t>Miami Heat</t>
@@ -45034,7 +45362,11 @@
           <t>2011-12-0614</t>
         </is>
       </c>
-      <c r="C1072" t="inlineStr"/>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D1072" t="inlineStr">
         <is>
           <t>Miami Heat</t>
@@ -45077,7 +45409,11 @@
           <t>Miami Heat</t>
         </is>
       </c>
-      <c r="D1073" t="inlineStr"/>
+      <c r="D1073" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E1073" t="n">
         <v>195</v>
       </c>
@@ -45115,7 +45451,11 @@
           <t>Miami Heat</t>
         </is>
       </c>
-      <c r="D1074" t="inlineStr"/>
+      <c r="D1074" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E1074" t="n">
         <v>192</v>
       </c>
@@ -45153,7 +45493,11 @@
           <t>Miami Heat</t>
         </is>
       </c>
-      <c r="D1075" t="inlineStr"/>
+      <c r="D1075" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E1075" t="n">
         <v>193</v>
       </c>
@@ -45178,6 +45522,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>